--- a/top_music_2023.xlsx
+++ b/top_music_2023.xlsx
@@ -1558,108 +1558,108 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>TQM</t>
+          <t>Calling (Spider-Man: Across the Spider-Verse) (Metro Boomin &amp; Swae Lee, NAV, feat. A Boogie Wit da Hoodie)</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>TQM</t>
+          <t>METRO BOOMIN PRESENTS SPIDER-MAN: ACROSS THE SPIDER-VERSE (SOUNDTRACK FROM AND INSPIRED BY THE MOTION PICTURE)</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Fuerza Regida</t>
+          <t>Metro Boomin</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2023-05-19</t>
+          <t>2023-06-02</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>158965</v>
+        <v>219453</v>
       </c>
       <c r="F21" t="n">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G21" t="n">
-        <v>0.786</v>
+        <v>0.631</v>
       </c>
       <c r="H21" t="n">
-        <v>0.273</v>
+        <v>0.464</v>
       </c>
       <c r="I21" t="n">
-        <v>0.853</v>
+        <v>0.535</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0.106</v>
+        <v>0.115</v>
       </c>
       <c r="L21" t="n">
-        <v>-4.955</v>
+        <v>-7.836</v>
       </c>
       <c r="M21" t="n">
-        <v>0.0589</v>
+        <v>0.0842</v>
       </c>
       <c r="N21" t="n">
-        <v>125.107</v>
+        <v>140.127</v>
       </c>
       <c r="O21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Peso Pluma: Bzrp Music Sessions, Vol. 55</t>
+          <t>TQM</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Peso Pluma: Bzrp Music Sessions, Vol. 55</t>
+          <t>TQM</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Bizarrap</t>
+          <t>Fuerza Regida</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2023-06-01</t>
+          <t>2023-05-19</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>188361</v>
+        <v>158965</v>
       </c>
       <c r="F22" t="n">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G22" t="n">
-        <v>0.854</v>
+        <v>0.786</v>
       </c>
       <c r="H22" t="n">
-        <v>0.264</v>
+        <v>0.273</v>
       </c>
       <c r="I22" t="n">
-        <v>0.668</v>
+        <v>0.853</v>
       </c>
       <c r="J22" t="n">
-        <v>5.61e-05</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>0.117</v>
+        <v>0.106</v>
       </c>
       <c r="L22" t="n">
-        <v>-7.848</v>
+        <v>-4.955</v>
       </c>
       <c r="M22" t="n">
-        <v>0.0466</v>
+        <v>0.0589</v>
       </c>
       <c r="N22" t="n">
-        <v>132.966</v>
+        <v>125.107</v>
       </c>
       <c r="O22" t="n">
         <v>3</v>
@@ -1668,56 +1668,56 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Calling (Spider-Man: Across the Spider-Verse) (Metro Boomin &amp; Swae Lee, NAV, feat. A Boogie Wit da Hoodie)</t>
+          <t>Peso Pluma: Bzrp Music Sessions, Vol. 55</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>METRO BOOMIN PRESENTS SPIDER-MAN: ACROSS THE SPIDER-VERSE (SOUNDTRACK FROM AND INSPIRED BY THE MOTION PICTURE)</t>
+          <t>Peso Pluma: Bzrp Music Sessions, Vol. 55</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Metro Boomin</t>
+          <t>Bizarrap</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2023-06-02</t>
+          <t>2023-06-01</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>219453</v>
+        <v>188361</v>
       </c>
       <c r="F23" t="n">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="G23" t="n">
-        <v>0.631</v>
+        <v>0.854</v>
       </c>
       <c r="H23" t="n">
-        <v>0.464</v>
+        <v>0.264</v>
       </c>
       <c r="I23" t="n">
-        <v>0.535</v>
+        <v>0.668</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>5.61e-05</v>
       </c>
       <c r="K23" t="n">
-        <v>0.115</v>
+        <v>0.117</v>
       </c>
       <c r="L23" t="n">
-        <v>-7.836</v>
+        <v>-7.848</v>
       </c>
       <c r="M23" t="n">
-        <v>0.0842</v>
+        <v>0.0466</v>
       </c>
       <c r="N23" t="n">
-        <v>140.127</v>
+        <v>132.966</v>
       </c>
       <c r="O23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24">
@@ -1745,7 +1745,7 @@
         <v>231746</v>
       </c>
       <c r="F24" t="n">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G24" t="n">
         <v>0.611</v>
@@ -2020,7 +2020,7 @@
         <v>256026</v>
       </c>
       <c r="F29" t="n">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G29" t="n">
         <v>0.599</v>
@@ -2845,7 +2845,7 @@
         <v>234466</v>
       </c>
       <c r="F44" t="n">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G44" t="n">
         <v>0.672</v>
@@ -4308,108 +4308,108 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>TQM</t>
+          <t>Calling (Spider-Man: Across the Spider-Verse) (Metro Boomin &amp; Swae Lee, NAV, feat. A Boogie Wit da Hoodie)</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>TQM</t>
+          <t>METRO BOOMIN PRESENTS SPIDER-MAN: ACROSS THE SPIDER-VERSE (SOUNDTRACK FROM AND INSPIRED BY THE MOTION PICTURE)</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Fuerza Regida</t>
+          <t>Metro Boomin</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>2023-05-19</t>
+          <t>2023-06-02</t>
         </is>
       </c>
       <c r="E71" t="n">
-        <v>158965</v>
+        <v>219453</v>
       </c>
       <c r="F71" t="n">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G71" t="n">
-        <v>0.786</v>
+        <v>0.631</v>
       </c>
       <c r="H71" t="n">
-        <v>0.273</v>
+        <v>0.464</v>
       </c>
       <c r="I71" t="n">
-        <v>0.853</v>
+        <v>0.535</v>
       </c>
       <c r="J71" t="n">
         <v>0</v>
       </c>
       <c r="K71" t="n">
-        <v>0.106</v>
+        <v>0.115</v>
       </c>
       <c r="L71" t="n">
-        <v>-4.955</v>
+        <v>-7.836</v>
       </c>
       <c r="M71" t="n">
-        <v>0.0589</v>
+        <v>0.0842</v>
       </c>
       <c r="N71" t="n">
-        <v>125.107</v>
+        <v>140.127</v>
       </c>
       <c r="O71" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Peso Pluma: Bzrp Music Sessions, Vol. 55</t>
+          <t>TQM</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Peso Pluma: Bzrp Music Sessions, Vol. 55</t>
+          <t>TQM</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Bizarrap</t>
+          <t>Fuerza Regida</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>2023-06-01</t>
+          <t>2023-05-19</t>
         </is>
       </c>
       <c r="E72" t="n">
-        <v>188361</v>
+        <v>158965</v>
       </c>
       <c r="F72" t="n">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G72" t="n">
-        <v>0.854</v>
+        <v>0.786</v>
       </c>
       <c r="H72" t="n">
-        <v>0.264</v>
+        <v>0.273</v>
       </c>
       <c r="I72" t="n">
-        <v>0.668</v>
+        <v>0.853</v>
       </c>
       <c r="J72" t="n">
-        <v>5.61e-05</v>
+        <v>0</v>
       </c>
       <c r="K72" t="n">
-        <v>0.117</v>
+        <v>0.106</v>
       </c>
       <c r="L72" t="n">
-        <v>-7.848</v>
+        <v>-4.955</v>
       </c>
       <c r="M72" t="n">
-        <v>0.0466</v>
+        <v>0.0589</v>
       </c>
       <c r="N72" t="n">
-        <v>132.966</v>
+        <v>125.107</v>
       </c>
       <c r="O72" t="n">
         <v>3</v>
@@ -4418,56 +4418,56 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Calling (Spider-Man: Across the Spider-Verse) (Metro Boomin &amp; Swae Lee, NAV, feat. A Boogie Wit da Hoodie)</t>
+          <t>Peso Pluma: Bzrp Music Sessions, Vol. 55</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>METRO BOOMIN PRESENTS SPIDER-MAN: ACROSS THE SPIDER-VERSE (SOUNDTRACK FROM AND INSPIRED BY THE MOTION PICTURE)</t>
+          <t>Peso Pluma: Bzrp Music Sessions, Vol. 55</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Metro Boomin</t>
+          <t>Bizarrap</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>2023-06-02</t>
+          <t>2023-06-01</t>
         </is>
       </c>
       <c r="E73" t="n">
-        <v>219453</v>
+        <v>188361</v>
       </c>
       <c r="F73" t="n">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="G73" t="n">
-        <v>0.631</v>
+        <v>0.854</v>
       </c>
       <c r="H73" t="n">
-        <v>0.464</v>
+        <v>0.264</v>
       </c>
       <c r="I73" t="n">
-        <v>0.535</v>
+        <v>0.668</v>
       </c>
       <c r="J73" t="n">
-        <v>0</v>
+        <v>5.61e-05</v>
       </c>
       <c r="K73" t="n">
-        <v>0.115</v>
+        <v>0.117</v>
       </c>
       <c r="L73" t="n">
-        <v>-7.836</v>
+        <v>-7.848</v>
       </c>
       <c r="M73" t="n">
-        <v>0.0842</v>
+        <v>0.0466</v>
       </c>
       <c r="N73" t="n">
-        <v>140.127</v>
+        <v>132.966</v>
       </c>
       <c r="O73" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="74">
@@ -4495,7 +4495,7 @@
         <v>231746</v>
       </c>
       <c r="F74" t="n">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G74" t="n">
         <v>0.611</v>
@@ -4770,7 +4770,7 @@
         <v>256026</v>
       </c>
       <c r="F79" t="n">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G79" t="n">
         <v>0.599</v>
@@ -5595,7 +5595,7 @@
         <v>234466</v>
       </c>
       <c r="F94" t="n">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G94" t="n">
         <v>0.672</v>
@@ -7058,108 +7058,108 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>TQM</t>
+          <t>Calling (Spider-Man: Across the Spider-Verse) (Metro Boomin &amp; Swae Lee, NAV, feat. A Boogie Wit da Hoodie)</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>TQM</t>
+          <t>METRO BOOMIN PRESENTS SPIDER-MAN: ACROSS THE SPIDER-VERSE (SOUNDTRACK FROM AND INSPIRED BY THE MOTION PICTURE)</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Fuerza Regida</t>
+          <t>Metro Boomin</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>2023-05-19</t>
+          <t>2023-06-02</t>
         </is>
       </c>
       <c r="E121" t="n">
-        <v>158965</v>
+        <v>219453</v>
       </c>
       <c r="F121" t="n">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G121" t="n">
-        <v>0.786</v>
+        <v>0.631</v>
       </c>
       <c r="H121" t="n">
-        <v>0.273</v>
+        <v>0.464</v>
       </c>
       <c r="I121" t="n">
-        <v>0.853</v>
+        <v>0.535</v>
       </c>
       <c r="J121" t="n">
         <v>0</v>
       </c>
       <c r="K121" t="n">
-        <v>0.106</v>
+        <v>0.115</v>
       </c>
       <c r="L121" t="n">
-        <v>-4.955</v>
+        <v>-7.836</v>
       </c>
       <c r="M121" t="n">
-        <v>0.0589</v>
+        <v>0.0842</v>
       </c>
       <c r="N121" t="n">
-        <v>125.107</v>
+        <v>140.127</v>
       </c>
       <c r="O121" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Peso Pluma: Bzrp Music Sessions, Vol. 55</t>
+          <t>TQM</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Peso Pluma: Bzrp Music Sessions, Vol. 55</t>
+          <t>TQM</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Bizarrap</t>
+          <t>Fuerza Regida</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>2023-06-01</t>
+          <t>2023-05-19</t>
         </is>
       </c>
       <c r="E122" t="n">
-        <v>188361</v>
+        <v>158965</v>
       </c>
       <c r="F122" t="n">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G122" t="n">
-        <v>0.854</v>
+        <v>0.786</v>
       </c>
       <c r="H122" t="n">
-        <v>0.264</v>
+        <v>0.273</v>
       </c>
       <c r="I122" t="n">
-        <v>0.668</v>
+        <v>0.853</v>
       </c>
       <c r="J122" t="n">
-        <v>5.61e-05</v>
+        <v>0</v>
       </c>
       <c r="K122" t="n">
-        <v>0.117</v>
+        <v>0.106</v>
       </c>
       <c r="L122" t="n">
-        <v>-7.848</v>
+        <v>-4.955</v>
       </c>
       <c r="M122" t="n">
-        <v>0.0466</v>
+        <v>0.0589</v>
       </c>
       <c r="N122" t="n">
-        <v>132.966</v>
+        <v>125.107</v>
       </c>
       <c r="O122" t="n">
         <v>3</v>
@@ -7168,56 +7168,56 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Calling (Spider-Man: Across the Spider-Verse) (Metro Boomin &amp; Swae Lee, NAV, feat. A Boogie Wit da Hoodie)</t>
+          <t>Peso Pluma: Bzrp Music Sessions, Vol. 55</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>METRO BOOMIN PRESENTS SPIDER-MAN: ACROSS THE SPIDER-VERSE (SOUNDTRACK FROM AND INSPIRED BY THE MOTION PICTURE)</t>
+          <t>Peso Pluma: Bzrp Music Sessions, Vol. 55</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Metro Boomin</t>
+          <t>Bizarrap</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>2023-06-02</t>
+          <t>2023-06-01</t>
         </is>
       </c>
       <c r="E123" t="n">
-        <v>219453</v>
+        <v>188361</v>
       </c>
       <c r="F123" t="n">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="G123" t="n">
-        <v>0.631</v>
+        <v>0.854</v>
       </c>
       <c r="H123" t="n">
-        <v>0.464</v>
+        <v>0.264</v>
       </c>
       <c r="I123" t="n">
-        <v>0.535</v>
+        <v>0.668</v>
       </c>
       <c r="J123" t="n">
-        <v>0</v>
+        <v>5.61e-05</v>
       </c>
       <c r="K123" t="n">
-        <v>0.115</v>
+        <v>0.117</v>
       </c>
       <c r="L123" t="n">
-        <v>-7.836</v>
+        <v>-7.848</v>
       </c>
       <c r="M123" t="n">
-        <v>0.0842</v>
+        <v>0.0466</v>
       </c>
       <c r="N123" t="n">
-        <v>140.127</v>
+        <v>132.966</v>
       </c>
       <c r="O123" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="124">
@@ -7245,7 +7245,7 @@
         <v>231746</v>
       </c>
       <c r="F124" t="n">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G124" t="n">
         <v>0.611</v>
@@ -7520,7 +7520,7 @@
         <v>256026</v>
       </c>
       <c r="F129" t="n">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G129" t="n">
         <v>0.599</v>
@@ -8345,7 +8345,7 @@
         <v>234466</v>
       </c>
       <c r="F144" t="n">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G144" t="n">
         <v>0.672</v>
@@ -9808,108 +9808,108 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>TQM</t>
+          <t>Calling (Spider-Man: Across the Spider-Verse) (Metro Boomin &amp; Swae Lee, NAV, feat. A Boogie Wit da Hoodie)</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>TQM</t>
+          <t>METRO BOOMIN PRESENTS SPIDER-MAN: ACROSS THE SPIDER-VERSE (SOUNDTRACK FROM AND INSPIRED BY THE MOTION PICTURE)</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Fuerza Regida</t>
+          <t>Metro Boomin</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>2023-05-19</t>
+          <t>2023-06-02</t>
         </is>
       </c>
       <c r="E171" t="n">
-        <v>158965</v>
+        <v>219453</v>
       </c>
       <c r="F171" t="n">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G171" t="n">
-        <v>0.786</v>
+        <v>0.631</v>
       </c>
       <c r="H171" t="n">
-        <v>0.273</v>
+        <v>0.464</v>
       </c>
       <c r="I171" t="n">
-        <v>0.853</v>
+        <v>0.535</v>
       </c>
       <c r="J171" t="n">
         <v>0</v>
       </c>
       <c r="K171" t="n">
-        <v>0.106</v>
+        <v>0.115</v>
       </c>
       <c r="L171" t="n">
-        <v>-4.955</v>
+        <v>-7.836</v>
       </c>
       <c r="M171" t="n">
-        <v>0.0589</v>
+        <v>0.0842</v>
       </c>
       <c r="N171" t="n">
-        <v>125.107</v>
+        <v>140.127</v>
       </c>
       <c r="O171" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Peso Pluma: Bzrp Music Sessions, Vol. 55</t>
+          <t>TQM</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Peso Pluma: Bzrp Music Sessions, Vol. 55</t>
+          <t>TQM</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Bizarrap</t>
+          <t>Fuerza Regida</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>2023-06-01</t>
+          <t>2023-05-19</t>
         </is>
       </c>
       <c r="E172" t="n">
-        <v>188361</v>
+        <v>158965</v>
       </c>
       <c r="F172" t="n">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G172" t="n">
-        <v>0.854</v>
+        <v>0.786</v>
       </c>
       <c r="H172" t="n">
-        <v>0.264</v>
+        <v>0.273</v>
       </c>
       <c r="I172" t="n">
-        <v>0.668</v>
+        <v>0.853</v>
       </c>
       <c r="J172" t="n">
-        <v>5.61e-05</v>
+        <v>0</v>
       </c>
       <c r="K172" t="n">
-        <v>0.117</v>
+        <v>0.106</v>
       </c>
       <c r="L172" t="n">
-        <v>-7.848</v>
+        <v>-4.955</v>
       </c>
       <c r="M172" t="n">
-        <v>0.0466</v>
+        <v>0.0589</v>
       </c>
       <c r="N172" t="n">
-        <v>132.966</v>
+        <v>125.107</v>
       </c>
       <c r="O172" t="n">
         <v>3</v>
@@ -9918,56 +9918,56 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Calling (Spider-Man: Across the Spider-Verse) (Metro Boomin &amp; Swae Lee, NAV, feat. A Boogie Wit da Hoodie)</t>
+          <t>Peso Pluma: Bzrp Music Sessions, Vol. 55</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>METRO BOOMIN PRESENTS SPIDER-MAN: ACROSS THE SPIDER-VERSE (SOUNDTRACK FROM AND INSPIRED BY THE MOTION PICTURE)</t>
+          <t>Peso Pluma: Bzrp Music Sessions, Vol. 55</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Metro Boomin</t>
+          <t>Bizarrap</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>2023-06-02</t>
+          <t>2023-06-01</t>
         </is>
       </c>
       <c r="E173" t="n">
-        <v>219453</v>
+        <v>188361</v>
       </c>
       <c r="F173" t="n">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="G173" t="n">
-        <v>0.631</v>
+        <v>0.854</v>
       </c>
       <c r="H173" t="n">
-        <v>0.464</v>
+        <v>0.264</v>
       </c>
       <c r="I173" t="n">
-        <v>0.535</v>
+        <v>0.668</v>
       </c>
       <c r="J173" t="n">
-        <v>0</v>
+        <v>5.61e-05</v>
       </c>
       <c r="K173" t="n">
-        <v>0.115</v>
+        <v>0.117</v>
       </c>
       <c r="L173" t="n">
-        <v>-7.836</v>
+        <v>-7.848</v>
       </c>
       <c r="M173" t="n">
-        <v>0.0842</v>
+        <v>0.0466</v>
       </c>
       <c r="N173" t="n">
-        <v>140.127</v>
+        <v>132.966</v>
       </c>
       <c r="O173" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="174">
@@ -9995,7 +9995,7 @@
         <v>231746</v>
       </c>
       <c r="F174" t="n">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G174" t="n">
         <v>0.611</v>
@@ -10270,7 +10270,7 @@
         <v>256026</v>
       </c>
       <c r="F179" t="n">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G179" t="n">
         <v>0.599</v>
@@ -11095,7 +11095,7 @@
         <v>234466</v>
       </c>
       <c r="F194" t="n">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G194" t="n">
         <v>0.672</v>
@@ -12558,108 +12558,108 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>TQM</t>
+          <t>Calling (Spider-Man: Across the Spider-Verse) (Metro Boomin &amp; Swae Lee, NAV, feat. A Boogie Wit da Hoodie)</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>TQM</t>
+          <t>METRO BOOMIN PRESENTS SPIDER-MAN: ACROSS THE SPIDER-VERSE (SOUNDTRACK FROM AND INSPIRED BY THE MOTION PICTURE)</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>Fuerza Regida</t>
+          <t>Metro Boomin</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>2023-05-19</t>
+          <t>2023-06-02</t>
         </is>
       </c>
       <c r="E221" t="n">
-        <v>158965</v>
+        <v>219453</v>
       </c>
       <c r="F221" t="n">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G221" t="n">
-        <v>0.786</v>
+        <v>0.631</v>
       </c>
       <c r="H221" t="n">
-        <v>0.273</v>
+        <v>0.464</v>
       </c>
       <c r="I221" t="n">
-        <v>0.853</v>
+        <v>0.535</v>
       </c>
       <c r="J221" t="n">
         <v>0</v>
       </c>
       <c r="K221" t="n">
-        <v>0.106</v>
+        <v>0.115</v>
       </c>
       <c r="L221" t="n">
-        <v>-4.955</v>
+        <v>-7.836</v>
       </c>
       <c r="M221" t="n">
-        <v>0.0589</v>
+        <v>0.0842</v>
       </c>
       <c r="N221" t="n">
-        <v>125.107</v>
+        <v>140.127</v>
       </c>
       <c r="O221" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>Peso Pluma: Bzrp Music Sessions, Vol. 55</t>
+          <t>TQM</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Peso Pluma: Bzrp Music Sessions, Vol. 55</t>
+          <t>TQM</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>Bizarrap</t>
+          <t>Fuerza Regida</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>2023-06-01</t>
+          <t>2023-05-19</t>
         </is>
       </c>
       <c r="E222" t="n">
-        <v>188361</v>
+        <v>158965</v>
       </c>
       <c r="F222" t="n">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G222" t="n">
-        <v>0.854</v>
+        <v>0.786</v>
       </c>
       <c r="H222" t="n">
-        <v>0.264</v>
+        <v>0.273</v>
       </c>
       <c r="I222" t="n">
-        <v>0.668</v>
+        <v>0.853</v>
       </c>
       <c r="J222" t="n">
-        <v>5.61e-05</v>
+        <v>0</v>
       </c>
       <c r="K222" t="n">
-        <v>0.117</v>
+        <v>0.106</v>
       </c>
       <c r="L222" t="n">
-        <v>-7.848</v>
+        <v>-4.955</v>
       </c>
       <c r="M222" t="n">
-        <v>0.0466</v>
+        <v>0.0589</v>
       </c>
       <c r="N222" t="n">
-        <v>132.966</v>
+        <v>125.107</v>
       </c>
       <c r="O222" t="n">
         <v>3</v>
@@ -12668,56 +12668,56 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>Calling (Spider-Man: Across the Spider-Verse) (Metro Boomin &amp; Swae Lee, NAV, feat. A Boogie Wit da Hoodie)</t>
+          <t>Peso Pluma: Bzrp Music Sessions, Vol. 55</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>METRO BOOMIN PRESENTS SPIDER-MAN: ACROSS THE SPIDER-VERSE (SOUNDTRACK FROM AND INSPIRED BY THE MOTION PICTURE)</t>
+          <t>Peso Pluma: Bzrp Music Sessions, Vol. 55</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>Metro Boomin</t>
+          <t>Bizarrap</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>2023-06-02</t>
+          <t>2023-06-01</t>
         </is>
       </c>
       <c r="E223" t="n">
-        <v>219453</v>
+        <v>188361</v>
       </c>
       <c r="F223" t="n">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="G223" t="n">
-        <v>0.631</v>
+        <v>0.854</v>
       </c>
       <c r="H223" t="n">
-        <v>0.464</v>
+        <v>0.264</v>
       </c>
       <c r="I223" t="n">
-        <v>0.535</v>
+        <v>0.668</v>
       </c>
       <c r="J223" t="n">
-        <v>0</v>
+        <v>5.61e-05</v>
       </c>
       <c r="K223" t="n">
-        <v>0.115</v>
+        <v>0.117</v>
       </c>
       <c r="L223" t="n">
-        <v>-7.836</v>
+        <v>-7.848</v>
       </c>
       <c r="M223" t="n">
-        <v>0.0842</v>
+        <v>0.0466</v>
       </c>
       <c r="N223" t="n">
-        <v>140.127</v>
+        <v>132.966</v>
       </c>
       <c r="O223" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="224">
@@ -12745,7 +12745,7 @@
         <v>231746</v>
       </c>
       <c r="F224" t="n">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G224" t="n">
         <v>0.611</v>
@@ -13020,7 +13020,7 @@
         <v>256026</v>
       </c>
       <c r="F229" t="n">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G229" t="n">
         <v>0.599</v>
@@ -13845,7 +13845,7 @@
         <v>234466</v>
       </c>
       <c r="F244" t="n">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G244" t="n">
         <v>0.672</v>
@@ -15308,108 +15308,108 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>TQM</t>
+          <t>Calling (Spider-Man: Across the Spider-Verse) (Metro Boomin &amp; Swae Lee, NAV, feat. A Boogie Wit da Hoodie)</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>TQM</t>
+          <t>METRO BOOMIN PRESENTS SPIDER-MAN: ACROSS THE SPIDER-VERSE (SOUNDTRACK FROM AND INSPIRED BY THE MOTION PICTURE)</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>Fuerza Regida</t>
+          <t>Metro Boomin</t>
         </is>
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>2023-05-19</t>
+          <t>2023-06-02</t>
         </is>
       </c>
       <c r="E271" t="n">
-        <v>158965</v>
+        <v>219453</v>
       </c>
       <c r="F271" t="n">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G271" t="n">
-        <v>0.786</v>
+        <v>0.631</v>
       </c>
       <c r="H271" t="n">
-        <v>0.273</v>
+        <v>0.464</v>
       </c>
       <c r="I271" t="n">
-        <v>0.853</v>
+        <v>0.535</v>
       </c>
       <c r="J271" t="n">
         <v>0</v>
       </c>
       <c r="K271" t="n">
-        <v>0.106</v>
+        <v>0.115</v>
       </c>
       <c r="L271" t="n">
-        <v>-4.955</v>
+        <v>-7.836</v>
       </c>
       <c r="M271" t="n">
-        <v>0.0589</v>
+        <v>0.0842</v>
       </c>
       <c r="N271" t="n">
-        <v>125.107</v>
+        <v>140.127</v>
       </c>
       <c r="O271" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>Peso Pluma: Bzrp Music Sessions, Vol. 55</t>
+          <t>TQM</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>Peso Pluma: Bzrp Music Sessions, Vol. 55</t>
+          <t>TQM</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>Bizarrap</t>
+          <t>Fuerza Regida</t>
         </is>
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>2023-06-01</t>
+          <t>2023-05-19</t>
         </is>
       </c>
       <c r="E272" t="n">
-        <v>188361</v>
+        <v>158965</v>
       </c>
       <c r="F272" t="n">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G272" t="n">
-        <v>0.854</v>
+        <v>0.786</v>
       </c>
       <c r="H272" t="n">
-        <v>0.264</v>
+        <v>0.273</v>
       </c>
       <c r="I272" t="n">
-        <v>0.668</v>
+        <v>0.853</v>
       </c>
       <c r="J272" t="n">
-        <v>5.61e-05</v>
+        <v>0</v>
       </c>
       <c r="K272" t="n">
-        <v>0.117</v>
+        <v>0.106</v>
       </c>
       <c r="L272" t="n">
-        <v>-7.848</v>
+        <v>-4.955</v>
       </c>
       <c r="M272" t="n">
-        <v>0.0466</v>
+        <v>0.0589</v>
       </c>
       <c r="N272" t="n">
-        <v>132.966</v>
+        <v>125.107</v>
       </c>
       <c r="O272" t="n">
         <v>3</v>
@@ -15418,56 +15418,56 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>Calling (Spider-Man: Across the Spider-Verse) (Metro Boomin &amp; Swae Lee, NAV, feat. A Boogie Wit da Hoodie)</t>
+          <t>Peso Pluma: Bzrp Music Sessions, Vol. 55</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>METRO BOOMIN PRESENTS SPIDER-MAN: ACROSS THE SPIDER-VERSE (SOUNDTRACK FROM AND INSPIRED BY THE MOTION PICTURE)</t>
+          <t>Peso Pluma: Bzrp Music Sessions, Vol. 55</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>Metro Boomin</t>
+          <t>Bizarrap</t>
         </is>
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>2023-06-02</t>
+          <t>2023-06-01</t>
         </is>
       </c>
       <c r="E273" t="n">
-        <v>219453</v>
+        <v>188361</v>
       </c>
       <c r="F273" t="n">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="G273" t="n">
-        <v>0.631</v>
+        <v>0.854</v>
       </c>
       <c r="H273" t="n">
-        <v>0.464</v>
+        <v>0.264</v>
       </c>
       <c r="I273" t="n">
-        <v>0.535</v>
+        <v>0.668</v>
       </c>
       <c r="J273" t="n">
-        <v>0</v>
+        <v>5.61e-05</v>
       </c>
       <c r="K273" t="n">
-        <v>0.115</v>
+        <v>0.117</v>
       </c>
       <c r="L273" t="n">
-        <v>-7.836</v>
+        <v>-7.848</v>
       </c>
       <c r="M273" t="n">
-        <v>0.0842</v>
+        <v>0.0466</v>
       </c>
       <c r="N273" t="n">
-        <v>140.127</v>
+        <v>132.966</v>
       </c>
       <c r="O273" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="274">
@@ -15495,7 +15495,7 @@
         <v>231746</v>
       </c>
       <c r="F274" t="n">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G274" t="n">
         <v>0.611</v>
@@ -15770,7 +15770,7 @@
         <v>256026</v>
       </c>
       <c r="F279" t="n">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G279" t="n">
         <v>0.599</v>
@@ -16595,7 +16595,7 @@
         <v>234466</v>
       </c>
       <c r="F294" t="n">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G294" t="n">
         <v>0.672</v>
@@ -18058,108 +18058,108 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>TQM</t>
+          <t>Calling (Spider-Man: Across the Spider-Verse) (Metro Boomin &amp; Swae Lee, NAV, feat. A Boogie Wit da Hoodie)</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>TQM</t>
+          <t>METRO BOOMIN PRESENTS SPIDER-MAN: ACROSS THE SPIDER-VERSE (SOUNDTRACK FROM AND INSPIRED BY THE MOTION PICTURE)</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>Fuerza Regida</t>
+          <t>Metro Boomin</t>
         </is>
       </c>
       <c r="D321" t="inlineStr">
         <is>
-          <t>2023-05-19</t>
+          <t>2023-06-02</t>
         </is>
       </c>
       <c r="E321" t="n">
-        <v>158965</v>
+        <v>219453</v>
       </c>
       <c r="F321" t="n">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G321" t="n">
-        <v>0.786</v>
+        <v>0.631</v>
       </c>
       <c r="H321" t="n">
-        <v>0.273</v>
+        <v>0.464</v>
       </c>
       <c r="I321" t="n">
-        <v>0.853</v>
+        <v>0.535</v>
       </c>
       <c r="J321" t="n">
         <v>0</v>
       </c>
       <c r="K321" t="n">
-        <v>0.106</v>
+        <v>0.115</v>
       </c>
       <c r="L321" t="n">
-        <v>-4.955</v>
+        <v>-7.836</v>
       </c>
       <c r="M321" t="n">
-        <v>0.0589</v>
+        <v>0.0842</v>
       </c>
       <c r="N321" t="n">
-        <v>125.107</v>
+        <v>140.127</v>
       </c>
       <c r="O321" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>Peso Pluma: Bzrp Music Sessions, Vol. 55</t>
+          <t>TQM</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>Peso Pluma: Bzrp Music Sessions, Vol. 55</t>
+          <t>TQM</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>Bizarrap</t>
+          <t>Fuerza Regida</t>
         </is>
       </c>
       <c r="D322" t="inlineStr">
         <is>
-          <t>2023-06-01</t>
+          <t>2023-05-19</t>
         </is>
       </c>
       <c r="E322" t="n">
-        <v>188361</v>
+        <v>158965</v>
       </c>
       <c r="F322" t="n">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G322" t="n">
-        <v>0.854</v>
+        <v>0.786</v>
       </c>
       <c r="H322" t="n">
-        <v>0.264</v>
+        <v>0.273</v>
       </c>
       <c r="I322" t="n">
-        <v>0.668</v>
+        <v>0.853</v>
       </c>
       <c r="J322" t="n">
-        <v>5.61e-05</v>
+        <v>0</v>
       </c>
       <c r="K322" t="n">
-        <v>0.117</v>
+        <v>0.106</v>
       </c>
       <c r="L322" t="n">
-        <v>-7.848</v>
+        <v>-4.955</v>
       </c>
       <c r="M322" t="n">
-        <v>0.0466</v>
+        <v>0.0589</v>
       </c>
       <c r="N322" t="n">
-        <v>132.966</v>
+        <v>125.107</v>
       </c>
       <c r="O322" t="n">
         <v>3</v>
@@ -18168,56 +18168,56 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>Calling (Spider-Man: Across the Spider-Verse) (Metro Boomin &amp; Swae Lee, NAV, feat. A Boogie Wit da Hoodie)</t>
+          <t>Peso Pluma: Bzrp Music Sessions, Vol. 55</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>METRO BOOMIN PRESENTS SPIDER-MAN: ACROSS THE SPIDER-VERSE (SOUNDTRACK FROM AND INSPIRED BY THE MOTION PICTURE)</t>
+          <t>Peso Pluma: Bzrp Music Sessions, Vol. 55</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>Metro Boomin</t>
+          <t>Bizarrap</t>
         </is>
       </c>
       <c r="D323" t="inlineStr">
         <is>
-          <t>2023-06-02</t>
+          <t>2023-06-01</t>
         </is>
       </c>
       <c r="E323" t="n">
-        <v>219453</v>
+        <v>188361</v>
       </c>
       <c r="F323" t="n">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="G323" t="n">
-        <v>0.631</v>
+        <v>0.854</v>
       </c>
       <c r="H323" t="n">
-        <v>0.464</v>
+        <v>0.264</v>
       </c>
       <c r="I323" t="n">
-        <v>0.535</v>
+        <v>0.668</v>
       </c>
       <c r="J323" t="n">
-        <v>0</v>
+        <v>5.61e-05</v>
       </c>
       <c r="K323" t="n">
-        <v>0.115</v>
+        <v>0.117</v>
       </c>
       <c r="L323" t="n">
-        <v>-7.836</v>
+        <v>-7.848</v>
       </c>
       <c r="M323" t="n">
-        <v>0.0842</v>
+        <v>0.0466</v>
       </c>
       <c r="N323" t="n">
-        <v>140.127</v>
+        <v>132.966</v>
       </c>
       <c r="O323" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="324">
@@ -18245,7 +18245,7 @@
         <v>231746</v>
       </c>
       <c r="F324" t="n">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G324" t="n">
         <v>0.611</v>
@@ -18520,7 +18520,7 @@
         <v>256026</v>
       </c>
       <c r="F329" t="n">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G329" t="n">
         <v>0.599</v>
@@ -19345,7 +19345,7 @@
         <v>234466</v>
       </c>
       <c r="F344" t="n">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G344" t="n">
         <v>0.672</v>
@@ -20808,108 +20808,108 @@
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>TQM</t>
+          <t>Calling (Spider-Man: Across the Spider-Verse) (Metro Boomin &amp; Swae Lee, NAV, feat. A Boogie Wit da Hoodie)</t>
         </is>
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>TQM</t>
+          <t>METRO BOOMIN PRESENTS SPIDER-MAN: ACROSS THE SPIDER-VERSE (SOUNDTRACK FROM AND INSPIRED BY THE MOTION PICTURE)</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
         <is>
-          <t>Fuerza Regida</t>
+          <t>Metro Boomin</t>
         </is>
       </c>
       <c r="D371" t="inlineStr">
         <is>
-          <t>2023-05-19</t>
+          <t>2023-06-02</t>
         </is>
       </c>
       <c r="E371" t="n">
-        <v>158965</v>
+        <v>219453</v>
       </c>
       <c r="F371" t="n">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G371" t="n">
-        <v>0.786</v>
+        <v>0.631</v>
       </c>
       <c r="H371" t="n">
-        <v>0.273</v>
+        <v>0.464</v>
       </c>
       <c r="I371" t="n">
-        <v>0.853</v>
+        <v>0.535</v>
       </c>
       <c r="J371" t="n">
         <v>0</v>
       </c>
       <c r="K371" t="n">
-        <v>0.106</v>
+        <v>0.115</v>
       </c>
       <c r="L371" t="n">
-        <v>-4.955</v>
+        <v>-7.836</v>
       </c>
       <c r="M371" t="n">
-        <v>0.0589</v>
+        <v>0.0842</v>
       </c>
       <c r="N371" t="n">
-        <v>125.107</v>
+        <v>140.127</v>
       </c>
       <c r="O371" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>Peso Pluma: Bzrp Music Sessions, Vol. 55</t>
+          <t>TQM</t>
         </is>
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>Peso Pluma: Bzrp Music Sessions, Vol. 55</t>
+          <t>TQM</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t>Bizarrap</t>
+          <t>Fuerza Regida</t>
         </is>
       </c>
       <c r="D372" t="inlineStr">
         <is>
-          <t>2023-06-01</t>
+          <t>2023-05-19</t>
         </is>
       </c>
       <c r="E372" t="n">
-        <v>188361</v>
+        <v>158965</v>
       </c>
       <c r="F372" t="n">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G372" t="n">
-        <v>0.854</v>
+        <v>0.786</v>
       </c>
       <c r="H372" t="n">
-        <v>0.264</v>
+        <v>0.273</v>
       </c>
       <c r="I372" t="n">
-        <v>0.668</v>
+        <v>0.853</v>
       </c>
       <c r="J372" t="n">
-        <v>5.61e-05</v>
+        <v>0</v>
       </c>
       <c r="K372" t="n">
-        <v>0.117</v>
+        <v>0.106</v>
       </c>
       <c r="L372" t="n">
-        <v>-7.848</v>
+        <v>-4.955</v>
       </c>
       <c r="M372" t="n">
-        <v>0.0466</v>
+        <v>0.0589</v>
       </c>
       <c r="N372" t="n">
-        <v>132.966</v>
+        <v>125.107</v>
       </c>
       <c r="O372" t="n">
         <v>3</v>
@@ -20918,56 +20918,56 @@
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>Calling (Spider-Man: Across the Spider-Verse) (Metro Boomin &amp; Swae Lee, NAV, feat. A Boogie Wit da Hoodie)</t>
+          <t>Peso Pluma: Bzrp Music Sessions, Vol. 55</t>
         </is>
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>METRO BOOMIN PRESENTS SPIDER-MAN: ACROSS THE SPIDER-VERSE (SOUNDTRACK FROM AND INSPIRED BY THE MOTION PICTURE)</t>
+          <t>Peso Pluma: Bzrp Music Sessions, Vol. 55</t>
         </is>
       </c>
       <c r="C373" t="inlineStr">
         <is>
-          <t>Metro Boomin</t>
+          <t>Bizarrap</t>
         </is>
       </c>
       <c r="D373" t="inlineStr">
         <is>
-          <t>2023-06-02</t>
+          <t>2023-06-01</t>
         </is>
       </c>
       <c r="E373" t="n">
-        <v>219453</v>
+        <v>188361</v>
       </c>
       <c r="F373" t="n">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="G373" t="n">
-        <v>0.631</v>
+        <v>0.854</v>
       </c>
       <c r="H373" t="n">
-        <v>0.464</v>
+        <v>0.264</v>
       </c>
       <c r="I373" t="n">
-        <v>0.535</v>
+        <v>0.668</v>
       </c>
       <c r="J373" t="n">
-        <v>0</v>
+        <v>5.61e-05</v>
       </c>
       <c r="K373" t="n">
-        <v>0.115</v>
+        <v>0.117</v>
       </c>
       <c r="L373" t="n">
-        <v>-7.836</v>
+        <v>-7.848</v>
       </c>
       <c r="M373" t="n">
-        <v>0.0842</v>
+        <v>0.0466</v>
       </c>
       <c r="N373" t="n">
-        <v>140.127</v>
+        <v>132.966</v>
       </c>
       <c r="O373" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="374">
@@ -20995,7 +20995,7 @@
         <v>231746</v>
       </c>
       <c r="F374" t="n">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G374" t="n">
         <v>0.611</v>
@@ -21270,7 +21270,7 @@
         <v>256026</v>
       </c>
       <c r="F379" t="n">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G379" t="n">
         <v>0.599</v>
@@ -22095,7 +22095,7 @@
         <v>234466</v>
       </c>
       <c r="F394" t="n">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G394" t="n">
         <v>0.672</v>
@@ -23558,108 +23558,108 @@
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>TQM</t>
+          <t>Calling (Spider-Man: Across the Spider-Verse) (Metro Boomin &amp; Swae Lee, NAV, feat. A Boogie Wit da Hoodie)</t>
         </is>
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>TQM</t>
+          <t>METRO BOOMIN PRESENTS SPIDER-MAN: ACROSS THE SPIDER-VERSE (SOUNDTRACK FROM AND INSPIRED BY THE MOTION PICTURE)</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
         <is>
-          <t>Fuerza Regida</t>
+          <t>Metro Boomin</t>
         </is>
       </c>
       <c r="D421" t="inlineStr">
         <is>
-          <t>2023-05-19</t>
+          <t>2023-06-02</t>
         </is>
       </c>
       <c r="E421" t="n">
-        <v>158965</v>
+        <v>219453</v>
       </c>
       <c r="F421" t="n">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G421" t="n">
-        <v>0.786</v>
+        <v>0.631</v>
       </c>
       <c r="H421" t="n">
-        <v>0.273</v>
+        <v>0.464</v>
       </c>
       <c r="I421" t="n">
-        <v>0.853</v>
+        <v>0.535</v>
       </c>
       <c r="J421" t="n">
         <v>0</v>
       </c>
       <c r="K421" t="n">
-        <v>0.106</v>
+        <v>0.115</v>
       </c>
       <c r="L421" t="n">
-        <v>-4.955</v>
+        <v>-7.836</v>
       </c>
       <c r="M421" t="n">
-        <v>0.0589</v>
+        <v>0.0842</v>
       </c>
       <c r="N421" t="n">
-        <v>125.107</v>
+        <v>140.127</v>
       </c>
       <c r="O421" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>Peso Pluma: Bzrp Music Sessions, Vol. 55</t>
+          <t>TQM</t>
         </is>
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>Peso Pluma: Bzrp Music Sessions, Vol. 55</t>
+          <t>TQM</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
         <is>
-          <t>Bizarrap</t>
+          <t>Fuerza Regida</t>
         </is>
       </c>
       <c r="D422" t="inlineStr">
         <is>
-          <t>2023-06-01</t>
+          <t>2023-05-19</t>
         </is>
       </c>
       <c r="E422" t="n">
-        <v>188361</v>
+        <v>158965</v>
       </c>
       <c r="F422" t="n">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G422" t="n">
-        <v>0.854</v>
+        <v>0.786</v>
       </c>
       <c r="H422" t="n">
-        <v>0.264</v>
+        <v>0.273</v>
       </c>
       <c r="I422" t="n">
-        <v>0.668</v>
+        <v>0.853</v>
       </c>
       <c r="J422" t="n">
-        <v>5.61e-05</v>
+        <v>0</v>
       </c>
       <c r="K422" t="n">
-        <v>0.117</v>
+        <v>0.106</v>
       </c>
       <c r="L422" t="n">
-        <v>-7.848</v>
+        <v>-4.955</v>
       </c>
       <c r="M422" t="n">
-        <v>0.0466</v>
+        <v>0.0589</v>
       </c>
       <c r="N422" t="n">
-        <v>132.966</v>
+        <v>125.107</v>
       </c>
       <c r="O422" t="n">
         <v>3</v>
@@ -23668,56 +23668,56 @@
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>Calling (Spider-Man: Across the Spider-Verse) (Metro Boomin &amp; Swae Lee, NAV, feat. A Boogie Wit da Hoodie)</t>
+          <t>Peso Pluma: Bzrp Music Sessions, Vol. 55</t>
         </is>
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>METRO BOOMIN PRESENTS SPIDER-MAN: ACROSS THE SPIDER-VERSE (SOUNDTRACK FROM AND INSPIRED BY THE MOTION PICTURE)</t>
+          <t>Peso Pluma: Bzrp Music Sessions, Vol. 55</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
         <is>
-          <t>Metro Boomin</t>
+          <t>Bizarrap</t>
         </is>
       </c>
       <c r="D423" t="inlineStr">
         <is>
-          <t>2023-06-02</t>
+          <t>2023-06-01</t>
         </is>
       </c>
       <c r="E423" t="n">
-        <v>219453</v>
+        <v>188361</v>
       </c>
       <c r="F423" t="n">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="G423" t="n">
-        <v>0.631</v>
+        <v>0.854</v>
       </c>
       <c r="H423" t="n">
-        <v>0.464</v>
+        <v>0.264</v>
       </c>
       <c r="I423" t="n">
-        <v>0.535</v>
+        <v>0.668</v>
       </c>
       <c r="J423" t="n">
-        <v>0</v>
+        <v>5.61e-05</v>
       </c>
       <c r="K423" t="n">
-        <v>0.115</v>
+        <v>0.117</v>
       </c>
       <c r="L423" t="n">
-        <v>-7.836</v>
+        <v>-7.848</v>
       </c>
       <c r="M423" t="n">
-        <v>0.0842</v>
+        <v>0.0466</v>
       </c>
       <c r="N423" t="n">
-        <v>140.127</v>
+        <v>132.966</v>
       </c>
       <c r="O423" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="424">
@@ -23745,7 +23745,7 @@
         <v>231746</v>
       </c>
       <c r="F424" t="n">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G424" t="n">
         <v>0.611</v>
@@ -24020,7 +24020,7 @@
         <v>256026</v>
       </c>
       <c r="F429" t="n">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G429" t="n">
         <v>0.599</v>
@@ -24845,7 +24845,7 @@
         <v>234466</v>
       </c>
       <c r="F444" t="n">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G444" t="n">
         <v>0.672</v>
@@ -26308,108 +26308,108 @@
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>TQM</t>
+          <t>Calling (Spider-Man: Across the Spider-Verse) (Metro Boomin &amp; Swae Lee, NAV, feat. A Boogie Wit da Hoodie)</t>
         </is>
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>TQM</t>
+          <t>METRO BOOMIN PRESENTS SPIDER-MAN: ACROSS THE SPIDER-VERSE (SOUNDTRACK FROM AND INSPIRED BY THE MOTION PICTURE)</t>
         </is>
       </c>
       <c r="C471" t="inlineStr">
         <is>
-          <t>Fuerza Regida</t>
+          <t>Metro Boomin</t>
         </is>
       </c>
       <c r="D471" t="inlineStr">
         <is>
-          <t>2023-05-19</t>
+          <t>2023-06-02</t>
         </is>
       </c>
       <c r="E471" t="n">
-        <v>158965</v>
+        <v>219453</v>
       </c>
       <c r="F471" t="n">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G471" t="n">
-        <v>0.786</v>
+        <v>0.631</v>
       </c>
       <c r="H471" t="n">
-        <v>0.273</v>
+        <v>0.464</v>
       </c>
       <c r="I471" t="n">
-        <v>0.853</v>
+        <v>0.535</v>
       </c>
       <c r="J471" t="n">
         <v>0</v>
       </c>
       <c r="K471" t="n">
-        <v>0.106</v>
+        <v>0.115</v>
       </c>
       <c r="L471" t="n">
-        <v>-4.955</v>
+        <v>-7.836</v>
       </c>
       <c r="M471" t="n">
-        <v>0.0589</v>
+        <v>0.0842</v>
       </c>
       <c r="N471" t="n">
-        <v>125.107</v>
+        <v>140.127</v>
       </c>
       <c r="O471" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>Peso Pluma: Bzrp Music Sessions, Vol. 55</t>
+          <t>TQM</t>
         </is>
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>Peso Pluma: Bzrp Music Sessions, Vol. 55</t>
+          <t>TQM</t>
         </is>
       </c>
       <c r="C472" t="inlineStr">
         <is>
-          <t>Bizarrap</t>
+          <t>Fuerza Regida</t>
         </is>
       </c>
       <c r="D472" t="inlineStr">
         <is>
-          <t>2023-06-01</t>
+          <t>2023-05-19</t>
         </is>
       </c>
       <c r="E472" t="n">
-        <v>188361</v>
+        <v>158965</v>
       </c>
       <c r="F472" t="n">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G472" t="n">
-        <v>0.854</v>
+        <v>0.786</v>
       </c>
       <c r="H472" t="n">
-        <v>0.264</v>
+        <v>0.273</v>
       </c>
       <c r="I472" t="n">
-        <v>0.668</v>
+        <v>0.853</v>
       </c>
       <c r="J472" t="n">
-        <v>5.61e-05</v>
+        <v>0</v>
       </c>
       <c r="K472" t="n">
-        <v>0.117</v>
+        <v>0.106</v>
       </c>
       <c r="L472" t="n">
-        <v>-7.848</v>
+        <v>-4.955</v>
       </c>
       <c r="M472" t="n">
-        <v>0.0466</v>
+        <v>0.0589</v>
       </c>
       <c r="N472" t="n">
-        <v>132.966</v>
+        <v>125.107</v>
       </c>
       <c r="O472" t="n">
         <v>3</v>
@@ -26418,56 +26418,56 @@
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>Calling (Spider-Man: Across the Spider-Verse) (Metro Boomin &amp; Swae Lee, NAV, feat. A Boogie Wit da Hoodie)</t>
+          <t>Peso Pluma: Bzrp Music Sessions, Vol. 55</t>
         </is>
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>METRO BOOMIN PRESENTS SPIDER-MAN: ACROSS THE SPIDER-VERSE (SOUNDTRACK FROM AND INSPIRED BY THE MOTION PICTURE)</t>
+          <t>Peso Pluma: Bzrp Music Sessions, Vol. 55</t>
         </is>
       </c>
       <c r="C473" t="inlineStr">
         <is>
-          <t>Metro Boomin</t>
+          <t>Bizarrap</t>
         </is>
       </c>
       <c r="D473" t="inlineStr">
         <is>
-          <t>2023-06-02</t>
+          <t>2023-06-01</t>
         </is>
       </c>
       <c r="E473" t="n">
-        <v>219453</v>
+        <v>188361</v>
       </c>
       <c r="F473" t="n">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="G473" t="n">
-        <v>0.631</v>
+        <v>0.854</v>
       </c>
       <c r="H473" t="n">
-        <v>0.464</v>
+        <v>0.264</v>
       </c>
       <c r="I473" t="n">
-        <v>0.535</v>
+        <v>0.668</v>
       </c>
       <c r="J473" t="n">
-        <v>0</v>
+        <v>5.61e-05</v>
       </c>
       <c r="K473" t="n">
-        <v>0.115</v>
+        <v>0.117</v>
       </c>
       <c r="L473" t="n">
-        <v>-7.836</v>
+        <v>-7.848</v>
       </c>
       <c r="M473" t="n">
-        <v>0.0842</v>
+        <v>0.0466</v>
       </c>
       <c r="N473" t="n">
-        <v>140.127</v>
+        <v>132.966</v>
       </c>
       <c r="O473" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="474">
@@ -26495,7 +26495,7 @@
         <v>231746</v>
       </c>
       <c r="F474" t="n">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G474" t="n">
         <v>0.611</v>
@@ -26770,7 +26770,7 @@
         <v>256026</v>
       </c>
       <c r="F479" t="n">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G479" t="n">
         <v>0.599</v>
@@ -27595,7 +27595,7 @@
         <v>234466</v>
       </c>
       <c r="F494" t="n">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G494" t="n">
         <v>0.672</v>
@@ -29058,108 +29058,108 @@
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>TQM</t>
+          <t>Calling (Spider-Man: Across the Spider-Verse) (Metro Boomin &amp; Swae Lee, NAV, feat. A Boogie Wit da Hoodie)</t>
         </is>
       </c>
       <c r="B521" t="inlineStr">
         <is>
-          <t>TQM</t>
+          <t>METRO BOOMIN PRESENTS SPIDER-MAN: ACROSS THE SPIDER-VERSE (SOUNDTRACK FROM AND INSPIRED BY THE MOTION PICTURE)</t>
         </is>
       </c>
       <c r="C521" t="inlineStr">
         <is>
-          <t>Fuerza Regida</t>
+          <t>Metro Boomin</t>
         </is>
       </c>
       <c r="D521" t="inlineStr">
         <is>
-          <t>2023-05-19</t>
+          <t>2023-06-02</t>
         </is>
       </c>
       <c r="E521" t="n">
-        <v>158965</v>
+        <v>219453</v>
       </c>
       <c r="F521" t="n">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G521" t="n">
-        <v>0.786</v>
+        <v>0.631</v>
       </c>
       <c r="H521" t="n">
-        <v>0.273</v>
+        <v>0.464</v>
       </c>
       <c r="I521" t="n">
-        <v>0.853</v>
+        <v>0.535</v>
       </c>
       <c r="J521" t="n">
         <v>0</v>
       </c>
       <c r="K521" t="n">
-        <v>0.106</v>
+        <v>0.115</v>
       </c>
       <c r="L521" t="n">
-        <v>-4.955</v>
+        <v>-7.836</v>
       </c>
       <c r="M521" t="n">
-        <v>0.0589</v>
+        <v>0.0842</v>
       </c>
       <c r="N521" t="n">
-        <v>125.107</v>
+        <v>140.127</v>
       </c>
       <c r="O521" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>Peso Pluma: Bzrp Music Sessions, Vol. 55</t>
+          <t>TQM</t>
         </is>
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t>Peso Pluma: Bzrp Music Sessions, Vol. 55</t>
+          <t>TQM</t>
         </is>
       </c>
       <c r="C522" t="inlineStr">
         <is>
-          <t>Bizarrap</t>
+          <t>Fuerza Regida</t>
         </is>
       </c>
       <c r="D522" t="inlineStr">
         <is>
-          <t>2023-06-01</t>
+          <t>2023-05-19</t>
         </is>
       </c>
       <c r="E522" t="n">
-        <v>188361</v>
+        <v>158965</v>
       </c>
       <c r="F522" t="n">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G522" t="n">
-        <v>0.854</v>
+        <v>0.786</v>
       </c>
       <c r="H522" t="n">
-        <v>0.264</v>
+        <v>0.273</v>
       </c>
       <c r="I522" t="n">
-        <v>0.668</v>
+        <v>0.853</v>
       </c>
       <c r="J522" t="n">
-        <v>5.61e-05</v>
+        <v>0</v>
       </c>
       <c r="K522" t="n">
-        <v>0.117</v>
+        <v>0.106</v>
       </c>
       <c r="L522" t="n">
-        <v>-7.848</v>
+        <v>-4.955</v>
       </c>
       <c r="M522" t="n">
-        <v>0.0466</v>
+        <v>0.0589</v>
       </c>
       <c r="N522" t="n">
-        <v>132.966</v>
+        <v>125.107</v>
       </c>
       <c r="O522" t="n">
         <v>3</v>
@@ -29168,56 +29168,56 @@
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>Calling (Spider-Man: Across the Spider-Verse) (Metro Boomin &amp; Swae Lee, NAV, feat. A Boogie Wit da Hoodie)</t>
+          <t>Peso Pluma: Bzrp Music Sessions, Vol. 55</t>
         </is>
       </c>
       <c r="B523" t="inlineStr">
         <is>
-          <t>METRO BOOMIN PRESENTS SPIDER-MAN: ACROSS THE SPIDER-VERSE (SOUNDTRACK FROM AND INSPIRED BY THE MOTION PICTURE)</t>
+          <t>Peso Pluma: Bzrp Music Sessions, Vol. 55</t>
         </is>
       </c>
       <c r="C523" t="inlineStr">
         <is>
-          <t>Metro Boomin</t>
+          <t>Bizarrap</t>
         </is>
       </c>
       <c r="D523" t="inlineStr">
         <is>
-          <t>2023-06-02</t>
+          <t>2023-06-01</t>
         </is>
       </c>
       <c r="E523" t="n">
-        <v>219453</v>
+        <v>188361</v>
       </c>
       <c r="F523" t="n">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="G523" t="n">
-        <v>0.631</v>
+        <v>0.854</v>
       </c>
       <c r="H523" t="n">
-        <v>0.464</v>
+        <v>0.264</v>
       </c>
       <c r="I523" t="n">
-        <v>0.535</v>
+        <v>0.668</v>
       </c>
       <c r="J523" t="n">
-        <v>0</v>
+        <v>5.61e-05</v>
       </c>
       <c r="K523" t="n">
-        <v>0.115</v>
+        <v>0.117</v>
       </c>
       <c r="L523" t="n">
-        <v>-7.836</v>
+        <v>-7.848</v>
       </c>
       <c r="M523" t="n">
-        <v>0.0842</v>
+        <v>0.0466</v>
       </c>
       <c r="N523" t="n">
-        <v>140.127</v>
+        <v>132.966</v>
       </c>
       <c r="O523" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="524">
@@ -29245,7 +29245,7 @@
         <v>231746</v>
       </c>
       <c r="F524" t="n">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G524" t="n">
         <v>0.611</v>
@@ -29520,7 +29520,7 @@
         <v>256026</v>
       </c>
       <c r="F529" t="n">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G529" t="n">
         <v>0.599</v>
@@ -30345,7 +30345,7 @@
         <v>234466</v>
       </c>
       <c r="F544" t="n">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G544" t="n">
         <v>0.672</v>
@@ -31808,108 +31808,108 @@
     <row r="571">
       <c r="A571" t="inlineStr">
         <is>
-          <t>TQM</t>
+          <t>Calling (Spider-Man: Across the Spider-Verse) (Metro Boomin &amp; Swae Lee, NAV, feat. A Boogie Wit da Hoodie)</t>
         </is>
       </c>
       <c r="B571" t="inlineStr">
         <is>
-          <t>TQM</t>
+          <t>METRO BOOMIN PRESENTS SPIDER-MAN: ACROSS THE SPIDER-VERSE (SOUNDTRACK FROM AND INSPIRED BY THE MOTION PICTURE)</t>
         </is>
       </c>
       <c r="C571" t="inlineStr">
         <is>
-          <t>Fuerza Regida</t>
+          <t>Metro Boomin</t>
         </is>
       </c>
       <c r="D571" t="inlineStr">
         <is>
-          <t>2023-05-19</t>
+          <t>2023-06-02</t>
         </is>
       </c>
       <c r="E571" t="n">
-        <v>158965</v>
+        <v>219453</v>
       </c>
       <c r="F571" t="n">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G571" t="n">
-        <v>0.786</v>
+        <v>0.631</v>
       </c>
       <c r="H571" t="n">
-        <v>0.273</v>
+        <v>0.464</v>
       </c>
       <c r="I571" t="n">
-        <v>0.853</v>
+        <v>0.535</v>
       </c>
       <c r="J571" t="n">
         <v>0</v>
       </c>
       <c r="K571" t="n">
-        <v>0.106</v>
+        <v>0.115</v>
       </c>
       <c r="L571" t="n">
-        <v>-4.955</v>
+        <v>-7.836</v>
       </c>
       <c r="M571" t="n">
-        <v>0.0589</v>
+        <v>0.0842</v>
       </c>
       <c r="N571" t="n">
-        <v>125.107</v>
+        <v>140.127</v>
       </c>
       <c r="O571" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" t="inlineStr">
         <is>
-          <t>Peso Pluma: Bzrp Music Sessions, Vol. 55</t>
+          <t>TQM</t>
         </is>
       </c>
       <c r="B572" t="inlineStr">
         <is>
-          <t>Peso Pluma: Bzrp Music Sessions, Vol. 55</t>
+          <t>TQM</t>
         </is>
       </c>
       <c r="C572" t="inlineStr">
         <is>
-          <t>Bizarrap</t>
+          <t>Fuerza Regida</t>
         </is>
       </c>
       <c r="D572" t="inlineStr">
         <is>
-          <t>2023-06-01</t>
+          <t>2023-05-19</t>
         </is>
       </c>
       <c r="E572" t="n">
-        <v>188361</v>
+        <v>158965</v>
       </c>
       <c r="F572" t="n">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G572" t="n">
-        <v>0.854</v>
+        <v>0.786</v>
       </c>
       <c r="H572" t="n">
-        <v>0.264</v>
+        <v>0.273</v>
       </c>
       <c r="I572" t="n">
-        <v>0.668</v>
+        <v>0.853</v>
       </c>
       <c r="J572" t="n">
-        <v>5.61e-05</v>
+        <v>0</v>
       </c>
       <c r="K572" t="n">
-        <v>0.117</v>
+        <v>0.106</v>
       </c>
       <c r="L572" t="n">
-        <v>-7.848</v>
+        <v>-4.955</v>
       </c>
       <c r="M572" t="n">
-        <v>0.0466</v>
+        <v>0.0589</v>
       </c>
       <c r="N572" t="n">
-        <v>132.966</v>
+        <v>125.107</v>
       </c>
       <c r="O572" t="n">
         <v>3</v>
@@ -31918,56 +31918,56 @@
     <row r="573">
       <c r="A573" t="inlineStr">
         <is>
-          <t>Calling (Spider-Man: Across the Spider-Verse) (Metro Boomin &amp; Swae Lee, NAV, feat. A Boogie Wit da Hoodie)</t>
+          <t>Peso Pluma: Bzrp Music Sessions, Vol. 55</t>
         </is>
       </c>
       <c r="B573" t="inlineStr">
         <is>
-          <t>METRO BOOMIN PRESENTS SPIDER-MAN: ACROSS THE SPIDER-VERSE (SOUNDTRACK FROM AND INSPIRED BY THE MOTION PICTURE)</t>
+          <t>Peso Pluma: Bzrp Music Sessions, Vol. 55</t>
         </is>
       </c>
       <c r="C573" t="inlineStr">
         <is>
-          <t>Metro Boomin</t>
+          <t>Bizarrap</t>
         </is>
       </c>
       <c r="D573" t="inlineStr">
         <is>
-          <t>2023-06-02</t>
+          <t>2023-06-01</t>
         </is>
       </c>
       <c r="E573" t="n">
-        <v>219453</v>
+        <v>188361</v>
       </c>
       <c r="F573" t="n">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="G573" t="n">
-        <v>0.631</v>
+        <v>0.854</v>
       </c>
       <c r="H573" t="n">
-        <v>0.464</v>
+        <v>0.264</v>
       </c>
       <c r="I573" t="n">
-        <v>0.535</v>
+        <v>0.668</v>
       </c>
       <c r="J573" t="n">
-        <v>0</v>
+        <v>5.61e-05</v>
       </c>
       <c r="K573" t="n">
-        <v>0.115</v>
+        <v>0.117</v>
       </c>
       <c r="L573" t="n">
-        <v>-7.836</v>
+        <v>-7.848</v>
       </c>
       <c r="M573" t="n">
-        <v>0.0842</v>
+        <v>0.0466</v>
       </c>
       <c r="N573" t="n">
-        <v>140.127</v>
+        <v>132.966</v>
       </c>
       <c r="O573" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="574">
@@ -31995,7 +31995,7 @@
         <v>231746</v>
       </c>
       <c r="F574" t="n">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G574" t="n">
         <v>0.611</v>
@@ -32270,7 +32270,7 @@
         <v>256026</v>
       </c>
       <c r="F579" t="n">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G579" t="n">
         <v>0.599</v>
@@ -33095,7 +33095,7 @@
         <v>234466</v>
       </c>
       <c r="F594" t="n">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G594" t="n">
         <v>0.672</v>
@@ -34558,108 +34558,108 @@
     <row r="621">
       <c r="A621" t="inlineStr">
         <is>
-          <t>TQM</t>
+          <t>Calling (Spider-Man: Across the Spider-Verse) (Metro Boomin &amp; Swae Lee, NAV, feat. A Boogie Wit da Hoodie)</t>
         </is>
       </c>
       <c r="B621" t="inlineStr">
         <is>
-          <t>TQM</t>
+          <t>METRO BOOMIN PRESENTS SPIDER-MAN: ACROSS THE SPIDER-VERSE (SOUNDTRACK FROM AND INSPIRED BY THE MOTION PICTURE)</t>
         </is>
       </c>
       <c r="C621" t="inlineStr">
         <is>
-          <t>Fuerza Regida</t>
+          <t>Metro Boomin</t>
         </is>
       </c>
       <c r="D621" t="inlineStr">
         <is>
-          <t>2023-05-19</t>
+          <t>2023-06-02</t>
         </is>
       </c>
       <c r="E621" t="n">
-        <v>158965</v>
+        <v>219453</v>
       </c>
       <c r="F621" t="n">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G621" t="n">
-        <v>0.786</v>
+        <v>0.631</v>
       </c>
       <c r="H621" t="n">
-        <v>0.273</v>
+        <v>0.464</v>
       </c>
       <c r="I621" t="n">
-        <v>0.853</v>
+        <v>0.535</v>
       </c>
       <c r="J621" t="n">
         <v>0</v>
       </c>
       <c r="K621" t="n">
-        <v>0.106</v>
+        <v>0.115</v>
       </c>
       <c r="L621" t="n">
-        <v>-4.955</v>
+        <v>-7.836</v>
       </c>
       <c r="M621" t="n">
-        <v>0.0589</v>
+        <v>0.0842</v>
       </c>
       <c r="N621" t="n">
-        <v>125.107</v>
+        <v>140.127</v>
       </c>
       <c r="O621" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="622">
       <c r="A622" t="inlineStr">
         <is>
-          <t>Peso Pluma: Bzrp Music Sessions, Vol. 55</t>
+          <t>TQM</t>
         </is>
       </c>
       <c r="B622" t="inlineStr">
         <is>
-          <t>Peso Pluma: Bzrp Music Sessions, Vol. 55</t>
+          <t>TQM</t>
         </is>
       </c>
       <c r="C622" t="inlineStr">
         <is>
-          <t>Bizarrap</t>
+          <t>Fuerza Regida</t>
         </is>
       </c>
       <c r="D622" t="inlineStr">
         <is>
-          <t>2023-06-01</t>
+          <t>2023-05-19</t>
         </is>
       </c>
       <c r="E622" t="n">
-        <v>188361</v>
+        <v>158965</v>
       </c>
       <c r="F622" t="n">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G622" t="n">
-        <v>0.854</v>
+        <v>0.786</v>
       </c>
       <c r="H622" t="n">
-        <v>0.264</v>
+        <v>0.273</v>
       </c>
       <c r="I622" t="n">
-        <v>0.668</v>
+        <v>0.853</v>
       </c>
       <c r="J622" t="n">
-        <v>5.61e-05</v>
+        <v>0</v>
       </c>
       <c r="K622" t="n">
-        <v>0.117</v>
+        <v>0.106</v>
       </c>
       <c r="L622" t="n">
-        <v>-7.848</v>
+        <v>-4.955</v>
       </c>
       <c r="M622" t="n">
-        <v>0.0466</v>
+        <v>0.0589</v>
       </c>
       <c r="N622" t="n">
-        <v>132.966</v>
+        <v>125.107</v>
       </c>
       <c r="O622" t="n">
         <v>3</v>
@@ -34668,56 +34668,56 @@
     <row r="623">
       <c r="A623" t="inlineStr">
         <is>
-          <t>Calling (Spider-Man: Across the Spider-Verse) (Metro Boomin &amp; Swae Lee, NAV, feat. A Boogie Wit da Hoodie)</t>
+          <t>Peso Pluma: Bzrp Music Sessions, Vol. 55</t>
         </is>
       </c>
       <c r="B623" t="inlineStr">
         <is>
-          <t>METRO BOOMIN PRESENTS SPIDER-MAN: ACROSS THE SPIDER-VERSE (SOUNDTRACK FROM AND INSPIRED BY THE MOTION PICTURE)</t>
+          <t>Peso Pluma: Bzrp Music Sessions, Vol. 55</t>
         </is>
       </c>
       <c r="C623" t="inlineStr">
         <is>
-          <t>Metro Boomin</t>
+          <t>Bizarrap</t>
         </is>
       </c>
       <c r="D623" t="inlineStr">
         <is>
-          <t>2023-06-02</t>
+          <t>2023-06-01</t>
         </is>
       </c>
       <c r="E623" t="n">
-        <v>219453</v>
+        <v>188361</v>
       </c>
       <c r="F623" t="n">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="G623" t="n">
-        <v>0.631</v>
+        <v>0.854</v>
       </c>
       <c r="H623" t="n">
-        <v>0.464</v>
+        <v>0.264</v>
       </c>
       <c r="I623" t="n">
-        <v>0.535</v>
+        <v>0.668</v>
       </c>
       <c r="J623" t="n">
-        <v>0</v>
+        <v>5.61e-05</v>
       </c>
       <c r="K623" t="n">
-        <v>0.115</v>
+        <v>0.117</v>
       </c>
       <c r="L623" t="n">
-        <v>-7.836</v>
+        <v>-7.848</v>
       </c>
       <c r="M623" t="n">
-        <v>0.0842</v>
+        <v>0.0466</v>
       </c>
       <c r="N623" t="n">
-        <v>140.127</v>
+        <v>132.966</v>
       </c>
       <c r="O623" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="624">
@@ -34745,7 +34745,7 @@
         <v>231746</v>
       </c>
       <c r="F624" t="n">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G624" t="n">
         <v>0.611</v>
@@ -35020,7 +35020,7 @@
         <v>256026</v>
       </c>
       <c r="F629" t="n">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G629" t="n">
         <v>0.599</v>
@@ -35845,7 +35845,7 @@
         <v>234466</v>
       </c>
       <c r="F644" t="n">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G644" t="n">
         <v>0.672</v>
@@ -37308,108 +37308,108 @@
     <row r="671">
       <c r="A671" t="inlineStr">
         <is>
-          <t>TQM</t>
+          <t>Calling (Spider-Man: Across the Spider-Verse) (Metro Boomin &amp; Swae Lee, NAV, feat. A Boogie Wit da Hoodie)</t>
         </is>
       </c>
       <c r="B671" t="inlineStr">
         <is>
-          <t>TQM</t>
+          <t>METRO BOOMIN PRESENTS SPIDER-MAN: ACROSS THE SPIDER-VERSE (SOUNDTRACK FROM AND INSPIRED BY THE MOTION PICTURE)</t>
         </is>
       </c>
       <c r="C671" t="inlineStr">
         <is>
-          <t>Fuerza Regida</t>
+          <t>Metro Boomin</t>
         </is>
       </c>
       <c r="D671" t="inlineStr">
         <is>
-          <t>2023-05-19</t>
+          <t>2023-06-02</t>
         </is>
       </c>
       <c r="E671" t="n">
-        <v>158965</v>
+        <v>219453</v>
       </c>
       <c r="F671" t="n">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G671" t="n">
-        <v>0.786</v>
+        <v>0.631</v>
       </c>
       <c r="H671" t="n">
-        <v>0.273</v>
+        <v>0.464</v>
       </c>
       <c r="I671" t="n">
-        <v>0.853</v>
+        <v>0.535</v>
       </c>
       <c r="J671" t="n">
         <v>0</v>
       </c>
       <c r="K671" t="n">
-        <v>0.106</v>
+        <v>0.115</v>
       </c>
       <c r="L671" t="n">
-        <v>-4.955</v>
+        <v>-7.836</v>
       </c>
       <c r="M671" t="n">
-        <v>0.0589</v>
+        <v>0.0842</v>
       </c>
       <c r="N671" t="n">
-        <v>125.107</v>
+        <v>140.127</v>
       </c>
       <c r="O671" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="672">
       <c r="A672" t="inlineStr">
         <is>
-          <t>Peso Pluma: Bzrp Music Sessions, Vol. 55</t>
+          <t>TQM</t>
         </is>
       </c>
       <c r="B672" t="inlineStr">
         <is>
-          <t>Peso Pluma: Bzrp Music Sessions, Vol. 55</t>
+          <t>TQM</t>
         </is>
       </c>
       <c r="C672" t="inlineStr">
         <is>
-          <t>Bizarrap</t>
+          <t>Fuerza Regida</t>
         </is>
       </c>
       <c r="D672" t="inlineStr">
         <is>
-          <t>2023-06-01</t>
+          <t>2023-05-19</t>
         </is>
       </c>
       <c r="E672" t="n">
-        <v>188361</v>
+        <v>158965</v>
       </c>
       <c r="F672" t="n">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G672" t="n">
-        <v>0.854</v>
+        <v>0.786</v>
       </c>
       <c r="H672" t="n">
-        <v>0.264</v>
+        <v>0.273</v>
       </c>
       <c r="I672" t="n">
-        <v>0.668</v>
+        <v>0.853</v>
       </c>
       <c r="J672" t="n">
-        <v>5.61e-05</v>
+        <v>0</v>
       </c>
       <c r="K672" t="n">
-        <v>0.117</v>
+        <v>0.106</v>
       </c>
       <c r="L672" t="n">
-        <v>-7.848</v>
+        <v>-4.955</v>
       </c>
       <c r="M672" t="n">
-        <v>0.0466</v>
+        <v>0.0589</v>
       </c>
       <c r="N672" t="n">
-        <v>132.966</v>
+        <v>125.107</v>
       </c>
       <c r="O672" t="n">
         <v>3</v>
@@ -37418,56 +37418,56 @@
     <row r="673">
       <c r="A673" t="inlineStr">
         <is>
-          <t>Calling (Spider-Man: Across the Spider-Verse) (Metro Boomin &amp; Swae Lee, NAV, feat. A Boogie Wit da Hoodie)</t>
+          <t>Peso Pluma: Bzrp Music Sessions, Vol. 55</t>
         </is>
       </c>
       <c r="B673" t="inlineStr">
         <is>
-          <t>METRO BOOMIN PRESENTS SPIDER-MAN: ACROSS THE SPIDER-VERSE (SOUNDTRACK FROM AND INSPIRED BY THE MOTION PICTURE)</t>
+          <t>Peso Pluma: Bzrp Music Sessions, Vol. 55</t>
         </is>
       </c>
       <c r="C673" t="inlineStr">
         <is>
-          <t>Metro Boomin</t>
+          <t>Bizarrap</t>
         </is>
       </c>
       <c r="D673" t="inlineStr">
         <is>
-          <t>2023-06-02</t>
+          <t>2023-06-01</t>
         </is>
       </c>
       <c r="E673" t="n">
-        <v>219453</v>
+        <v>188361</v>
       </c>
       <c r="F673" t="n">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="G673" t="n">
-        <v>0.631</v>
+        <v>0.854</v>
       </c>
       <c r="H673" t="n">
-        <v>0.464</v>
+        <v>0.264</v>
       </c>
       <c r="I673" t="n">
-        <v>0.535</v>
+        <v>0.668</v>
       </c>
       <c r="J673" t="n">
-        <v>0</v>
+        <v>5.61e-05</v>
       </c>
       <c r="K673" t="n">
-        <v>0.115</v>
+        <v>0.117</v>
       </c>
       <c r="L673" t="n">
-        <v>-7.836</v>
+        <v>-7.848</v>
       </c>
       <c r="M673" t="n">
-        <v>0.0842</v>
+        <v>0.0466</v>
       </c>
       <c r="N673" t="n">
-        <v>140.127</v>
+        <v>132.966</v>
       </c>
       <c r="O673" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="674">
@@ -37495,7 +37495,7 @@
         <v>231746</v>
       </c>
       <c r="F674" t="n">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G674" t="n">
         <v>0.611</v>
@@ -37770,7 +37770,7 @@
         <v>256026</v>
       </c>
       <c r="F679" t="n">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G679" t="n">
         <v>0.599</v>
@@ -38595,7 +38595,7 @@
         <v>234466</v>
       </c>
       <c r="F694" t="n">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G694" t="n">
         <v>0.672</v>
@@ -40058,108 +40058,108 @@
     <row r="721">
       <c r="A721" t="inlineStr">
         <is>
-          <t>TQM</t>
+          <t>Calling (Spider-Man: Across the Spider-Verse) (Metro Boomin &amp; Swae Lee, NAV, feat. A Boogie Wit da Hoodie)</t>
         </is>
       </c>
       <c r="B721" t="inlineStr">
         <is>
-          <t>TQM</t>
+          <t>METRO BOOMIN PRESENTS SPIDER-MAN: ACROSS THE SPIDER-VERSE (SOUNDTRACK FROM AND INSPIRED BY THE MOTION PICTURE)</t>
         </is>
       </c>
       <c r="C721" t="inlineStr">
         <is>
-          <t>Fuerza Regida</t>
+          <t>Metro Boomin</t>
         </is>
       </c>
       <c r="D721" t="inlineStr">
         <is>
-          <t>2023-05-19</t>
+          <t>2023-06-02</t>
         </is>
       </c>
       <c r="E721" t="n">
-        <v>158965</v>
+        <v>219453</v>
       </c>
       <c r="F721" t="n">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G721" t="n">
-        <v>0.786</v>
+        <v>0.631</v>
       </c>
       <c r="H721" t="n">
-        <v>0.273</v>
+        <v>0.464</v>
       </c>
       <c r="I721" t="n">
-        <v>0.853</v>
+        <v>0.535</v>
       </c>
       <c r="J721" t="n">
         <v>0</v>
       </c>
       <c r="K721" t="n">
-        <v>0.106</v>
+        <v>0.115</v>
       </c>
       <c r="L721" t="n">
-        <v>-4.955</v>
+        <v>-7.836</v>
       </c>
       <c r="M721" t="n">
-        <v>0.0589</v>
+        <v>0.0842</v>
       </c>
       <c r="N721" t="n">
-        <v>125.107</v>
+        <v>140.127</v>
       </c>
       <c r="O721" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="722">
       <c r="A722" t="inlineStr">
         <is>
-          <t>Peso Pluma: Bzrp Music Sessions, Vol. 55</t>
+          <t>TQM</t>
         </is>
       </c>
       <c r="B722" t="inlineStr">
         <is>
-          <t>Peso Pluma: Bzrp Music Sessions, Vol. 55</t>
+          <t>TQM</t>
         </is>
       </c>
       <c r="C722" t="inlineStr">
         <is>
-          <t>Bizarrap</t>
+          <t>Fuerza Regida</t>
         </is>
       </c>
       <c r="D722" t="inlineStr">
         <is>
-          <t>2023-06-01</t>
+          <t>2023-05-19</t>
         </is>
       </c>
       <c r="E722" t="n">
-        <v>188361</v>
+        <v>158965</v>
       </c>
       <c r="F722" t="n">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G722" t="n">
-        <v>0.854</v>
+        <v>0.786</v>
       </c>
       <c r="H722" t="n">
-        <v>0.264</v>
+        <v>0.273</v>
       </c>
       <c r="I722" t="n">
-        <v>0.668</v>
+        <v>0.853</v>
       </c>
       <c r="J722" t="n">
-        <v>5.61e-05</v>
+        <v>0</v>
       </c>
       <c r="K722" t="n">
-        <v>0.117</v>
+        <v>0.106</v>
       </c>
       <c r="L722" t="n">
-        <v>-7.848</v>
+        <v>-4.955</v>
       </c>
       <c r="M722" t="n">
-        <v>0.0466</v>
+        <v>0.0589</v>
       </c>
       <c r="N722" t="n">
-        <v>132.966</v>
+        <v>125.107</v>
       </c>
       <c r="O722" t="n">
         <v>3</v>
@@ -40168,56 +40168,56 @@
     <row r="723">
       <c r="A723" t="inlineStr">
         <is>
-          <t>Calling (Spider-Man: Across the Spider-Verse) (Metro Boomin &amp; Swae Lee, NAV, feat. A Boogie Wit da Hoodie)</t>
+          <t>Peso Pluma: Bzrp Music Sessions, Vol. 55</t>
         </is>
       </c>
       <c r="B723" t="inlineStr">
         <is>
-          <t>METRO BOOMIN PRESENTS SPIDER-MAN: ACROSS THE SPIDER-VERSE (SOUNDTRACK FROM AND INSPIRED BY THE MOTION PICTURE)</t>
+          <t>Peso Pluma: Bzrp Music Sessions, Vol. 55</t>
         </is>
       </c>
       <c r="C723" t="inlineStr">
         <is>
-          <t>Metro Boomin</t>
+          <t>Bizarrap</t>
         </is>
       </c>
       <c r="D723" t="inlineStr">
         <is>
-          <t>2023-06-02</t>
+          <t>2023-06-01</t>
         </is>
       </c>
       <c r="E723" t="n">
-        <v>219453</v>
+        <v>188361</v>
       </c>
       <c r="F723" t="n">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="G723" t="n">
-        <v>0.631</v>
+        <v>0.854</v>
       </c>
       <c r="H723" t="n">
-        <v>0.464</v>
+        <v>0.264</v>
       </c>
       <c r="I723" t="n">
-        <v>0.535</v>
+        <v>0.668</v>
       </c>
       <c r="J723" t="n">
-        <v>0</v>
+        <v>5.61e-05</v>
       </c>
       <c r="K723" t="n">
-        <v>0.115</v>
+        <v>0.117</v>
       </c>
       <c r="L723" t="n">
-        <v>-7.836</v>
+        <v>-7.848</v>
       </c>
       <c r="M723" t="n">
-        <v>0.0842</v>
+        <v>0.0466</v>
       </c>
       <c r="N723" t="n">
-        <v>140.127</v>
+        <v>132.966</v>
       </c>
       <c r="O723" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="724">
@@ -40245,7 +40245,7 @@
         <v>231746</v>
       </c>
       <c r="F724" t="n">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G724" t="n">
         <v>0.611</v>
@@ -40520,7 +40520,7 @@
         <v>256026</v>
       </c>
       <c r="F729" t="n">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G729" t="n">
         <v>0.599</v>
@@ -41345,7 +41345,7 @@
         <v>234466</v>
       </c>
       <c r="F744" t="n">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G744" t="n">
         <v>0.672</v>
@@ -42808,108 +42808,108 @@
     <row r="771">
       <c r="A771" t="inlineStr">
         <is>
-          <t>TQM</t>
+          <t>Calling (Spider-Man: Across the Spider-Verse) (Metro Boomin &amp; Swae Lee, NAV, feat. A Boogie Wit da Hoodie)</t>
         </is>
       </c>
       <c r="B771" t="inlineStr">
         <is>
-          <t>TQM</t>
+          <t>METRO BOOMIN PRESENTS SPIDER-MAN: ACROSS THE SPIDER-VERSE (SOUNDTRACK FROM AND INSPIRED BY THE MOTION PICTURE)</t>
         </is>
       </c>
       <c r="C771" t="inlineStr">
         <is>
-          <t>Fuerza Regida</t>
+          <t>Metro Boomin</t>
         </is>
       </c>
       <c r="D771" t="inlineStr">
         <is>
-          <t>2023-05-19</t>
+          <t>2023-06-02</t>
         </is>
       </c>
       <c r="E771" t="n">
-        <v>158965</v>
+        <v>219453</v>
       </c>
       <c r="F771" t="n">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G771" t="n">
-        <v>0.786</v>
+        <v>0.631</v>
       </c>
       <c r="H771" t="n">
-        <v>0.273</v>
+        <v>0.464</v>
       </c>
       <c r="I771" t="n">
-        <v>0.853</v>
+        <v>0.535</v>
       </c>
       <c r="J771" t="n">
         <v>0</v>
       </c>
       <c r="K771" t="n">
-        <v>0.106</v>
+        <v>0.115</v>
       </c>
       <c r="L771" t="n">
-        <v>-4.955</v>
+        <v>-7.836</v>
       </c>
       <c r="M771" t="n">
-        <v>0.0589</v>
+        <v>0.0842</v>
       </c>
       <c r="N771" t="n">
-        <v>125.107</v>
+        <v>140.127</v>
       </c>
       <c r="O771" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="772">
       <c r="A772" t="inlineStr">
         <is>
-          <t>Peso Pluma: Bzrp Music Sessions, Vol. 55</t>
+          <t>TQM</t>
         </is>
       </c>
       <c r="B772" t="inlineStr">
         <is>
-          <t>Peso Pluma: Bzrp Music Sessions, Vol. 55</t>
+          <t>TQM</t>
         </is>
       </c>
       <c r="C772" t="inlineStr">
         <is>
-          <t>Bizarrap</t>
+          <t>Fuerza Regida</t>
         </is>
       </c>
       <c r="D772" t="inlineStr">
         <is>
-          <t>2023-06-01</t>
+          <t>2023-05-19</t>
         </is>
       </c>
       <c r="E772" t="n">
-        <v>188361</v>
+        <v>158965</v>
       </c>
       <c r="F772" t="n">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G772" t="n">
-        <v>0.854</v>
+        <v>0.786</v>
       </c>
       <c r="H772" t="n">
-        <v>0.264</v>
+        <v>0.273</v>
       </c>
       <c r="I772" t="n">
-        <v>0.668</v>
+        <v>0.853</v>
       </c>
       <c r="J772" t="n">
-        <v>5.61e-05</v>
+        <v>0</v>
       </c>
       <c r="K772" t="n">
-        <v>0.117</v>
+        <v>0.106</v>
       </c>
       <c r="L772" t="n">
-        <v>-7.848</v>
+        <v>-4.955</v>
       </c>
       <c r="M772" t="n">
-        <v>0.0466</v>
+        <v>0.0589</v>
       </c>
       <c r="N772" t="n">
-        <v>132.966</v>
+        <v>125.107</v>
       </c>
       <c r="O772" t="n">
         <v>3</v>
@@ -42918,56 +42918,56 @@
     <row r="773">
       <c r="A773" t="inlineStr">
         <is>
-          <t>Calling (Spider-Man: Across the Spider-Verse) (Metro Boomin &amp; Swae Lee, NAV, feat. A Boogie Wit da Hoodie)</t>
+          <t>Peso Pluma: Bzrp Music Sessions, Vol. 55</t>
         </is>
       </c>
       <c r="B773" t="inlineStr">
         <is>
-          <t>METRO BOOMIN PRESENTS SPIDER-MAN: ACROSS THE SPIDER-VERSE (SOUNDTRACK FROM AND INSPIRED BY THE MOTION PICTURE)</t>
+          <t>Peso Pluma: Bzrp Music Sessions, Vol. 55</t>
         </is>
       </c>
       <c r="C773" t="inlineStr">
         <is>
-          <t>Metro Boomin</t>
+          <t>Bizarrap</t>
         </is>
       </c>
       <c r="D773" t="inlineStr">
         <is>
-          <t>2023-06-02</t>
+          <t>2023-06-01</t>
         </is>
       </c>
       <c r="E773" t="n">
-        <v>219453</v>
+        <v>188361</v>
       </c>
       <c r="F773" t="n">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="G773" t="n">
-        <v>0.631</v>
+        <v>0.854</v>
       </c>
       <c r="H773" t="n">
-        <v>0.464</v>
+        <v>0.264</v>
       </c>
       <c r="I773" t="n">
-        <v>0.535</v>
+        <v>0.668</v>
       </c>
       <c r="J773" t="n">
-        <v>0</v>
+        <v>5.61e-05</v>
       </c>
       <c r="K773" t="n">
-        <v>0.115</v>
+        <v>0.117</v>
       </c>
       <c r="L773" t="n">
-        <v>-7.836</v>
+        <v>-7.848</v>
       </c>
       <c r="M773" t="n">
-        <v>0.0842</v>
+        <v>0.0466</v>
       </c>
       <c r="N773" t="n">
-        <v>140.127</v>
+        <v>132.966</v>
       </c>
       <c r="O773" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="774">
@@ -42995,7 +42995,7 @@
         <v>231746</v>
       </c>
       <c r="F774" t="n">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G774" t="n">
         <v>0.611</v>
@@ -43270,7 +43270,7 @@
         <v>256026</v>
       </c>
       <c r="F779" t="n">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G779" t="n">
         <v>0.599</v>
@@ -44095,7 +44095,7 @@
         <v>234466</v>
       </c>
       <c r="F794" t="n">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G794" t="n">
         <v>0.672</v>
@@ -45558,108 +45558,108 @@
     <row r="821">
       <c r="A821" t="inlineStr">
         <is>
-          <t>TQM</t>
+          <t>Calling (Spider-Man: Across the Spider-Verse) (Metro Boomin &amp; Swae Lee, NAV, feat. A Boogie Wit da Hoodie)</t>
         </is>
       </c>
       <c r="B821" t="inlineStr">
         <is>
-          <t>TQM</t>
+          <t>METRO BOOMIN PRESENTS SPIDER-MAN: ACROSS THE SPIDER-VERSE (SOUNDTRACK FROM AND INSPIRED BY THE MOTION PICTURE)</t>
         </is>
       </c>
       <c r="C821" t="inlineStr">
         <is>
-          <t>Fuerza Regida</t>
+          <t>Metro Boomin</t>
         </is>
       </c>
       <c r="D821" t="inlineStr">
         <is>
-          <t>2023-05-19</t>
+          <t>2023-06-02</t>
         </is>
       </c>
       <c r="E821" t="n">
-        <v>158965</v>
+        <v>219453</v>
       </c>
       <c r="F821" t="n">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G821" t="n">
-        <v>0.786</v>
+        <v>0.631</v>
       </c>
       <c r="H821" t="n">
-        <v>0.273</v>
+        <v>0.464</v>
       </c>
       <c r="I821" t="n">
-        <v>0.853</v>
+        <v>0.535</v>
       </c>
       <c r="J821" t="n">
         <v>0</v>
       </c>
       <c r="K821" t="n">
-        <v>0.106</v>
+        <v>0.115</v>
       </c>
       <c r="L821" t="n">
-        <v>-4.955</v>
+        <v>-7.836</v>
       </c>
       <c r="M821" t="n">
-        <v>0.0589</v>
+        <v>0.0842</v>
       </c>
       <c r="N821" t="n">
-        <v>125.107</v>
+        <v>140.127</v>
       </c>
       <c r="O821" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="822">
       <c r="A822" t="inlineStr">
         <is>
-          <t>Peso Pluma: Bzrp Music Sessions, Vol. 55</t>
+          <t>TQM</t>
         </is>
       </c>
       <c r="B822" t="inlineStr">
         <is>
-          <t>Peso Pluma: Bzrp Music Sessions, Vol. 55</t>
+          <t>TQM</t>
         </is>
       </c>
       <c r="C822" t="inlineStr">
         <is>
-          <t>Bizarrap</t>
+          <t>Fuerza Regida</t>
         </is>
       </c>
       <c r="D822" t="inlineStr">
         <is>
-          <t>2023-06-01</t>
+          <t>2023-05-19</t>
         </is>
       </c>
       <c r="E822" t="n">
-        <v>188361</v>
+        <v>158965</v>
       </c>
       <c r="F822" t="n">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G822" t="n">
-        <v>0.854</v>
+        <v>0.786</v>
       </c>
       <c r="H822" t="n">
-        <v>0.264</v>
+        <v>0.273</v>
       </c>
       <c r="I822" t="n">
-        <v>0.668</v>
+        <v>0.853</v>
       </c>
       <c r="J822" t="n">
-        <v>5.61e-05</v>
+        <v>0</v>
       </c>
       <c r="K822" t="n">
-        <v>0.117</v>
+        <v>0.106</v>
       </c>
       <c r="L822" t="n">
-        <v>-7.848</v>
+        <v>-4.955</v>
       </c>
       <c r="M822" t="n">
-        <v>0.0466</v>
+        <v>0.0589</v>
       </c>
       <c r="N822" t="n">
-        <v>132.966</v>
+        <v>125.107</v>
       </c>
       <c r="O822" t="n">
         <v>3</v>
@@ -45668,56 +45668,56 @@
     <row r="823">
       <c r="A823" t="inlineStr">
         <is>
-          <t>Calling (Spider-Man: Across the Spider-Verse) (Metro Boomin &amp; Swae Lee, NAV, feat. A Boogie Wit da Hoodie)</t>
+          <t>Peso Pluma: Bzrp Music Sessions, Vol. 55</t>
         </is>
       </c>
       <c r="B823" t="inlineStr">
         <is>
-          <t>METRO BOOMIN PRESENTS SPIDER-MAN: ACROSS THE SPIDER-VERSE (SOUNDTRACK FROM AND INSPIRED BY THE MOTION PICTURE)</t>
+          <t>Peso Pluma: Bzrp Music Sessions, Vol. 55</t>
         </is>
       </c>
       <c r="C823" t="inlineStr">
         <is>
-          <t>Metro Boomin</t>
+          <t>Bizarrap</t>
         </is>
       </c>
       <c r="D823" t="inlineStr">
         <is>
-          <t>2023-06-02</t>
+          <t>2023-06-01</t>
         </is>
       </c>
       <c r="E823" t="n">
-        <v>219453</v>
+        <v>188361</v>
       </c>
       <c r="F823" t="n">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="G823" t="n">
-        <v>0.631</v>
+        <v>0.854</v>
       </c>
       <c r="H823" t="n">
-        <v>0.464</v>
+        <v>0.264</v>
       </c>
       <c r="I823" t="n">
-        <v>0.535</v>
+        <v>0.668</v>
       </c>
       <c r="J823" t="n">
-        <v>0</v>
+        <v>5.61e-05</v>
       </c>
       <c r="K823" t="n">
-        <v>0.115</v>
+        <v>0.117</v>
       </c>
       <c r="L823" t="n">
-        <v>-7.836</v>
+        <v>-7.848</v>
       </c>
       <c r="M823" t="n">
-        <v>0.0842</v>
+        <v>0.0466</v>
       </c>
       <c r="N823" t="n">
-        <v>140.127</v>
+        <v>132.966</v>
       </c>
       <c r="O823" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="824">
@@ -45745,7 +45745,7 @@
         <v>231746</v>
       </c>
       <c r="F824" t="n">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G824" t="n">
         <v>0.611</v>
@@ -46020,7 +46020,7 @@
         <v>256026</v>
       </c>
       <c r="F829" t="n">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G829" t="n">
         <v>0.599</v>
@@ -46845,7 +46845,7 @@
         <v>234466</v>
       </c>
       <c r="F844" t="n">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G844" t="n">
         <v>0.672</v>
@@ -48308,108 +48308,108 @@
     <row r="871">
       <c r="A871" t="inlineStr">
         <is>
-          <t>TQM</t>
+          <t>Calling (Spider-Man: Across the Spider-Verse) (Metro Boomin &amp; Swae Lee, NAV, feat. A Boogie Wit da Hoodie)</t>
         </is>
       </c>
       <c r="B871" t="inlineStr">
         <is>
-          <t>TQM</t>
+          <t>METRO BOOMIN PRESENTS SPIDER-MAN: ACROSS THE SPIDER-VERSE (SOUNDTRACK FROM AND INSPIRED BY THE MOTION PICTURE)</t>
         </is>
       </c>
       <c r="C871" t="inlineStr">
         <is>
-          <t>Fuerza Regida</t>
+          <t>Metro Boomin</t>
         </is>
       </c>
       <c r="D871" t="inlineStr">
         <is>
-          <t>2023-05-19</t>
+          <t>2023-06-02</t>
         </is>
       </c>
       <c r="E871" t="n">
-        <v>158965</v>
+        <v>219453</v>
       </c>
       <c r="F871" t="n">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G871" t="n">
-        <v>0.786</v>
+        <v>0.631</v>
       </c>
       <c r="H871" t="n">
-        <v>0.273</v>
+        <v>0.464</v>
       </c>
       <c r="I871" t="n">
-        <v>0.853</v>
+        <v>0.535</v>
       </c>
       <c r="J871" t="n">
         <v>0</v>
       </c>
       <c r="K871" t="n">
-        <v>0.106</v>
+        <v>0.115</v>
       </c>
       <c r="L871" t="n">
-        <v>-4.955</v>
+        <v>-7.836</v>
       </c>
       <c r="M871" t="n">
-        <v>0.0589</v>
+        <v>0.0842</v>
       </c>
       <c r="N871" t="n">
-        <v>125.107</v>
+        <v>140.127</v>
       </c>
       <c r="O871" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="872">
       <c r="A872" t="inlineStr">
         <is>
-          <t>Peso Pluma: Bzrp Music Sessions, Vol. 55</t>
+          <t>TQM</t>
         </is>
       </c>
       <c r="B872" t="inlineStr">
         <is>
-          <t>Peso Pluma: Bzrp Music Sessions, Vol. 55</t>
+          <t>TQM</t>
         </is>
       </c>
       <c r="C872" t="inlineStr">
         <is>
-          <t>Bizarrap</t>
+          <t>Fuerza Regida</t>
         </is>
       </c>
       <c r="D872" t="inlineStr">
         <is>
-          <t>2023-06-01</t>
+          <t>2023-05-19</t>
         </is>
       </c>
       <c r="E872" t="n">
-        <v>188361</v>
+        <v>158965</v>
       </c>
       <c r="F872" t="n">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G872" t="n">
-        <v>0.854</v>
+        <v>0.786</v>
       </c>
       <c r="H872" t="n">
-        <v>0.264</v>
+        <v>0.273</v>
       </c>
       <c r="I872" t="n">
-        <v>0.668</v>
+        <v>0.853</v>
       </c>
       <c r="J872" t="n">
-        <v>5.61e-05</v>
+        <v>0</v>
       </c>
       <c r="K872" t="n">
-        <v>0.117</v>
+        <v>0.106</v>
       </c>
       <c r="L872" t="n">
-        <v>-7.848</v>
+        <v>-4.955</v>
       </c>
       <c r="M872" t="n">
-        <v>0.0466</v>
+        <v>0.0589</v>
       </c>
       <c r="N872" t="n">
-        <v>132.966</v>
+        <v>125.107</v>
       </c>
       <c r="O872" t="n">
         <v>3</v>
@@ -48418,56 +48418,56 @@
     <row r="873">
       <c r="A873" t="inlineStr">
         <is>
-          <t>Calling (Spider-Man: Across the Spider-Verse) (Metro Boomin &amp; Swae Lee, NAV, feat. A Boogie Wit da Hoodie)</t>
+          <t>Peso Pluma: Bzrp Music Sessions, Vol. 55</t>
         </is>
       </c>
       <c r="B873" t="inlineStr">
         <is>
-          <t>METRO BOOMIN PRESENTS SPIDER-MAN: ACROSS THE SPIDER-VERSE (SOUNDTRACK FROM AND INSPIRED BY THE MOTION PICTURE)</t>
+          <t>Peso Pluma: Bzrp Music Sessions, Vol. 55</t>
         </is>
       </c>
       <c r="C873" t="inlineStr">
         <is>
-          <t>Metro Boomin</t>
+          <t>Bizarrap</t>
         </is>
       </c>
       <c r="D873" t="inlineStr">
         <is>
-          <t>2023-06-02</t>
+          <t>2023-06-01</t>
         </is>
       </c>
       <c r="E873" t="n">
-        <v>219453</v>
+        <v>188361</v>
       </c>
       <c r="F873" t="n">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="G873" t="n">
-        <v>0.631</v>
+        <v>0.854</v>
       </c>
       <c r="H873" t="n">
-        <v>0.464</v>
+        <v>0.264</v>
       </c>
       <c r="I873" t="n">
-        <v>0.535</v>
+        <v>0.668</v>
       </c>
       <c r="J873" t="n">
-        <v>0</v>
+        <v>5.61e-05</v>
       </c>
       <c r="K873" t="n">
-        <v>0.115</v>
+        <v>0.117</v>
       </c>
       <c r="L873" t="n">
-        <v>-7.836</v>
+        <v>-7.848</v>
       </c>
       <c r="M873" t="n">
-        <v>0.0842</v>
+        <v>0.0466</v>
       </c>
       <c r="N873" t="n">
-        <v>140.127</v>
+        <v>132.966</v>
       </c>
       <c r="O873" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="874">
@@ -48495,7 +48495,7 @@
         <v>231746</v>
       </c>
       <c r="F874" t="n">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G874" t="n">
         <v>0.611</v>
@@ -48770,7 +48770,7 @@
         <v>256026</v>
       </c>
       <c r="F879" t="n">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G879" t="n">
         <v>0.599</v>
@@ -49595,7 +49595,7 @@
         <v>234466</v>
       </c>
       <c r="F894" t="n">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G894" t="n">
         <v>0.672</v>
@@ -51058,108 +51058,108 @@
     <row r="921">
       <c r="A921" t="inlineStr">
         <is>
-          <t>TQM</t>
+          <t>Calling (Spider-Man: Across the Spider-Verse) (Metro Boomin &amp; Swae Lee, NAV, feat. A Boogie Wit da Hoodie)</t>
         </is>
       </c>
       <c r="B921" t="inlineStr">
         <is>
-          <t>TQM</t>
+          <t>METRO BOOMIN PRESENTS SPIDER-MAN: ACROSS THE SPIDER-VERSE (SOUNDTRACK FROM AND INSPIRED BY THE MOTION PICTURE)</t>
         </is>
       </c>
       <c r="C921" t="inlineStr">
         <is>
-          <t>Fuerza Regida</t>
+          <t>Metro Boomin</t>
         </is>
       </c>
       <c r="D921" t="inlineStr">
         <is>
-          <t>2023-05-19</t>
+          <t>2023-06-02</t>
         </is>
       </c>
       <c r="E921" t="n">
-        <v>158965</v>
+        <v>219453</v>
       </c>
       <c r="F921" t="n">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G921" t="n">
-        <v>0.786</v>
+        <v>0.631</v>
       </c>
       <c r="H921" t="n">
-        <v>0.273</v>
+        <v>0.464</v>
       </c>
       <c r="I921" t="n">
-        <v>0.853</v>
+        <v>0.535</v>
       </c>
       <c r="J921" t="n">
         <v>0</v>
       </c>
       <c r="K921" t="n">
-        <v>0.106</v>
+        <v>0.115</v>
       </c>
       <c r="L921" t="n">
-        <v>-4.955</v>
+        <v>-7.836</v>
       </c>
       <c r="M921" t="n">
-        <v>0.0589</v>
+        <v>0.0842</v>
       </c>
       <c r="N921" t="n">
-        <v>125.107</v>
+        <v>140.127</v>
       </c>
       <c r="O921" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="922">
       <c r="A922" t="inlineStr">
         <is>
-          <t>Peso Pluma: Bzrp Music Sessions, Vol. 55</t>
+          <t>TQM</t>
         </is>
       </c>
       <c r="B922" t="inlineStr">
         <is>
-          <t>Peso Pluma: Bzrp Music Sessions, Vol. 55</t>
+          <t>TQM</t>
         </is>
       </c>
       <c r="C922" t="inlineStr">
         <is>
-          <t>Bizarrap</t>
+          <t>Fuerza Regida</t>
         </is>
       </c>
       <c r="D922" t="inlineStr">
         <is>
-          <t>2023-06-01</t>
+          <t>2023-05-19</t>
         </is>
       </c>
       <c r="E922" t="n">
-        <v>188361</v>
+        <v>158965</v>
       </c>
       <c r="F922" t="n">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G922" t="n">
-        <v>0.854</v>
+        <v>0.786</v>
       </c>
       <c r="H922" t="n">
-        <v>0.264</v>
+        <v>0.273</v>
       </c>
       <c r="I922" t="n">
-        <v>0.668</v>
+        <v>0.853</v>
       </c>
       <c r="J922" t="n">
-        <v>5.61e-05</v>
+        <v>0</v>
       </c>
       <c r="K922" t="n">
-        <v>0.117</v>
+        <v>0.106</v>
       </c>
       <c r="L922" t="n">
-        <v>-7.848</v>
+        <v>-4.955</v>
       </c>
       <c r="M922" t="n">
-        <v>0.0466</v>
+        <v>0.0589</v>
       </c>
       <c r="N922" t="n">
-        <v>132.966</v>
+        <v>125.107</v>
       </c>
       <c r="O922" t="n">
         <v>3</v>
@@ -51168,56 +51168,56 @@
     <row r="923">
       <c r="A923" t="inlineStr">
         <is>
-          <t>Calling (Spider-Man: Across the Spider-Verse) (Metro Boomin &amp; Swae Lee, NAV, feat. A Boogie Wit da Hoodie)</t>
+          <t>Peso Pluma: Bzrp Music Sessions, Vol. 55</t>
         </is>
       </c>
       <c r="B923" t="inlineStr">
         <is>
-          <t>METRO BOOMIN PRESENTS SPIDER-MAN: ACROSS THE SPIDER-VERSE (SOUNDTRACK FROM AND INSPIRED BY THE MOTION PICTURE)</t>
+          <t>Peso Pluma: Bzrp Music Sessions, Vol. 55</t>
         </is>
       </c>
       <c r="C923" t="inlineStr">
         <is>
-          <t>Metro Boomin</t>
+          <t>Bizarrap</t>
         </is>
       </c>
       <c r="D923" t="inlineStr">
         <is>
-          <t>2023-06-02</t>
+          <t>2023-06-01</t>
         </is>
       </c>
       <c r="E923" t="n">
-        <v>219453</v>
+        <v>188361</v>
       </c>
       <c r="F923" t="n">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="G923" t="n">
-        <v>0.631</v>
+        <v>0.854</v>
       </c>
       <c r="H923" t="n">
-        <v>0.464</v>
+        <v>0.264</v>
       </c>
       <c r="I923" t="n">
-        <v>0.535</v>
+        <v>0.668</v>
       </c>
       <c r="J923" t="n">
-        <v>0</v>
+        <v>5.61e-05</v>
       </c>
       <c r="K923" t="n">
-        <v>0.115</v>
+        <v>0.117</v>
       </c>
       <c r="L923" t="n">
-        <v>-7.836</v>
+        <v>-7.848</v>
       </c>
       <c r="M923" t="n">
-        <v>0.0842</v>
+        <v>0.0466</v>
       </c>
       <c r="N923" t="n">
-        <v>140.127</v>
+        <v>132.966</v>
       </c>
       <c r="O923" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="924">
@@ -51245,7 +51245,7 @@
         <v>231746</v>
       </c>
       <c r="F924" t="n">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G924" t="n">
         <v>0.611</v>
@@ -51520,7 +51520,7 @@
         <v>256026</v>
       </c>
       <c r="F929" t="n">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G929" t="n">
         <v>0.599</v>
@@ -52345,7 +52345,7 @@
         <v>234466</v>
       </c>
       <c r="F944" t="n">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G944" t="n">
         <v>0.672</v>
@@ -53808,108 +53808,108 @@
     <row r="971">
       <c r="A971" t="inlineStr">
         <is>
-          <t>TQM</t>
+          <t>Calling (Spider-Man: Across the Spider-Verse) (Metro Boomin &amp; Swae Lee, NAV, feat. A Boogie Wit da Hoodie)</t>
         </is>
       </c>
       <c r="B971" t="inlineStr">
         <is>
-          <t>TQM</t>
+          <t>METRO BOOMIN PRESENTS SPIDER-MAN: ACROSS THE SPIDER-VERSE (SOUNDTRACK FROM AND INSPIRED BY THE MOTION PICTURE)</t>
         </is>
       </c>
       <c r="C971" t="inlineStr">
         <is>
-          <t>Fuerza Regida</t>
+          <t>Metro Boomin</t>
         </is>
       </c>
       <c r="D971" t="inlineStr">
         <is>
-          <t>2023-05-19</t>
+          <t>2023-06-02</t>
         </is>
       </c>
       <c r="E971" t="n">
-        <v>158965</v>
+        <v>219453</v>
       </c>
       <c r="F971" t="n">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G971" t="n">
-        <v>0.786</v>
+        <v>0.631</v>
       </c>
       <c r="H971" t="n">
-        <v>0.273</v>
+        <v>0.464</v>
       </c>
       <c r="I971" t="n">
-        <v>0.853</v>
+        <v>0.535</v>
       </c>
       <c r="J971" t="n">
         <v>0</v>
       </c>
       <c r="K971" t="n">
-        <v>0.106</v>
+        <v>0.115</v>
       </c>
       <c r="L971" t="n">
-        <v>-4.955</v>
+        <v>-7.836</v>
       </c>
       <c r="M971" t="n">
-        <v>0.0589</v>
+        <v>0.0842</v>
       </c>
       <c r="N971" t="n">
-        <v>125.107</v>
+        <v>140.127</v>
       </c>
       <c r="O971" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="972">
       <c r="A972" t="inlineStr">
         <is>
-          <t>Peso Pluma: Bzrp Music Sessions, Vol. 55</t>
+          <t>TQM</t>
         </is>
       </c>
       <c r="B972" t="inlineStr">
         <is>
-          <t>Peso Pluma: Bzrp Music Sessions, Vol. 55</t>
+          <t>TQM</t>
         </is>
       </c>
       <c r="C972" t="inlineStr">
         <is>
-          <t>Bizarrap</t>
+          <t>Fuerza Regida</t>
         </is>
       </c>
       <c r="D972" t="inlineStr">
         <is>
-          <t>2023-06-01</t>
+          <t>2023-05-19</t>
         </is>
       </c>
       <c r="E972" t="n">
-        <v>188361</v>
+        <v>158965</v>
       </c>
       <c r="F972" t="n">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G972" t="n">
-        <v>0.854</v>
+        <v>0.786</v>
       </c>
       <c r="H972" t="n">
-        <v>0.264</v>
+        <v>0.273</v>
       </c>
       <c r="I972" t="n">
-        <v>0.668</v>
+        <v>0.853</v>
       </c>
       <c r="J972" t="n">
-        <v>5.61e-05</v>
+        <v>0</v>
       </c>
       <c r="K972" t="n">
-        <v>0.117</v>
+        <v>0.106</v>
       </c>
       <c r="L972" t="n">
-        <v>-7.848</v>
+        <v>-4.955</v>
       </c>
       <c r="M972" t="n">
-        <v>0.0466</v>
+        <v>0.0589</v>
       </c>
       <c r="N972" t="n">
-        <v>132.966</v>
+        <v>125.107</v>
       </c>
       <c r="O972" t="n">
         <v>3</v>
@@ -53918,56 +53918,56 @@
     <row r="973">
       <c r="A973" t="inlineStr">
         <is>
-          <t>Calling (Spider-Man: Across the Spider-Verse) (Metro Boomin &amp; Swae Lee, NAV, feat. A Boogie Wit da Hoodie)</t>
+          <t>Peso Pluma: Bzrp Music Sessions, Vol. 55</t>
         </is>
       </c>
       <c r="B973" t="inlineStr">
         <is>
-          <t>METRO BOOMIN PRESENTS SPIDER-MAN: ACROSS THE SPIDER-VERSE (SOUNDTRACK FROM AND INSPIRED BY THE MOTION PICTURE)</t>
+          <t>Peso Pluma: Bzrp Music Sessions, Vol. 55</t>
         </is>
       </c>
       <c r="C973" t="inlineStr">
         <is>
-          <t>Metro Boomin</t>
+          <t>Bizarrap</t>
         </is>
       </c>
       <c r="D973" t="inlineStr">
         <is>
-          <t>2023-06-02</t>
+          <t>2023-06-01</t>
         </is>
       </c>
       <c r="E973" t="n">
-        <v>219453</v>
+        <v>188361</v>
       </c>
       <c r="F973" t="n">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="G973" t="n">
-        <v>0.631</v>
+        <v>0.854</v>
       </c>
       <c r="H973" t="n">
-        <v>0.464</v>
+        <v>0.264</v>
       </c>
       <c r="I973" t="n">
-        <v>0.535</v>
+        <v>0.668</v>
       </c>
       <c r="J973" t="n">
-        <v>0</v>
+        <v>5.61e-05</v>
       </c>
       <c r="K973" t="n">
-        <v>0.115</v>
+        <v>0.117</v>
       </c>
       <c r="L973" t="n">
-        <v>-7.836</v>
+        <v>-7.848</v>
       </c>
       <c r="M973" t="n">
-        <v>0.0842</v>
+        <v>0.0466</v>
       </c>
       <c r="N973" t="n">
-        <v>140.127</v>
+        <v>132.966</v>
       </c>
       <c r="O973" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="974">
@@ -53995,7 +53995,7 @@
         <v>231746</v>
       </c>
       <c r="F974" t="n">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G974" t="n">
         <v>0.611</v>
@@ -54270,7 +54270,7 @@
         <v>256026</v>
       </c>
       <c r="F979" t="n">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G979" t="n">
         <v>0.599</v>
@@ -55095,7 +55095,7 @@
         <v>234466</v>
       </c>
       <c r="F994" t="n">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G994" t="n">
         <v>0.672</v>
